--- a/data/04_data/python_book_info.xlsx
+++ b/data/04_data/python_book_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="799">
   <si>
     <t>책제목</t>
   </si>
@@ -37,94 +37,115 @@
     <t>파이썬 알고리즘 인터뷰 (95가지 알고리즘 문제 풀이로 완성하는 코딩 테스트)</t>
   </si>
   <si>
+    <t>쉽게 따라 만드는 파이썬 주식 자동매매 시스템 (증권사 API 사용, 매매전략 구현, 실전 투자 전환까지!)</t>
+  </si>
+  <si>
+    <t>파이썬 머신러닝 완벽 가이드 (다양한 캐글 예제와 함께 기초 알고리즘부터 최신 기법까지 배우는)</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 비트코인 자동매매</t>
+  </si>
+  <si>
     <t>파이썬 무작정 따라하기 (미래의 프로그래머를 위한)</t>
   </si>
   <si>
+    <t>Do it! 첫 코딩 with 파이썬 (보통 사람이 알아야 할 프로그래밍 기초)</t>
+  </si>
+  <si>
     <t>파이썬 증권 데이터 분석 (파이썬 입문, 웹 스크레이핑, 트레이딩 전략, 자동 매매)</t>
   </si>
   <si>
-    <t>파이썬 머신러닝 완벽 가이드 (다양한 캐글 예제와 함께 기초 알고리즘부터 최신 기법까지 배우는)</t>
-  </si>
-  <si>
-    <t>쉽게 따라 만드는 파이썬 주식 자동매매 시스템 (증권사 API 사용, 매매전략 구현, 실전 투자 전환까지!)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 비트코인 자동매매</t>
+    <t>Do it! 파이썬 생활 프로그래밍</t>
+  </si>
+  <si>
+    <t>선형대수와 통계학으로 배우는 머신러닝 with 파이썬 (선형대수와 통계학으로 배우는 머신러닝 with 파이썬)</t>
   </si>
   <si>
     <t>머신 러닝 교과서 with 파이썬, 사이킷런, 텐서플로 (최신 넘파이, 사이킷런, 텐서플로 2로 배우는 머신 러닝, 딥러닝 핵심 알고)</t>
   </si>
   <si>
+    <t>알고리즘 구현으로 배우는 선형대수 with 파이썬 (행렬의 기초부터 텐서를 활용한 머신러닝과 딥러닝 적용까지)</t>
+  </si>
+  <si>
+    <t>파이썬 for Beginner (쉽고 빠르게 익히는 프로그래밍의 기본 원리)</t>
+  </si>
+  <si>
+    <t>혼자 공부하는 첫 프로그래밍 with 파이썬 (1:1 과외하듯 배우는 왕초보 코딩 입문서)</t>
+  </si>
+  <si>
     <t>생활코딩 머신러닝 실습편 with 파이썬 텐서플로 (누구나 쉽게 시작하는 인공지능 첫걸음)</t>
   </si>
   <si>
-    <t>Do it! 첫 코딩 with 파이썬 (보통 사람이 알아야 할 프로그래밍 기초)</t>
-  </si>
-  <si>
-    <t>Do it! 파이썬 생활 프로그래밍</t>
-  </si>
-  <si>
     <t>모두의 파이썬 (20일 만에 배우는 프로그래밍 기초)</t>
   </si>
   <si>
-    <t>선형대수와 통계학으로 배우는 머신러닝 with 파이썬 (선형대수와 통계학으로 배우는 머신러닝 with 파이썬)</t>
-  </si>
-  <si>
-    <t>혼자 공부하는 첫 프로그래밍 with 파이썬 (1:1 과외하듯 배우는 왕초보 코딩 입문서)</t>
+    <t>Do it! 첫 파이썬 (게임하듯 배우는 나의 첫 프로그래밍 책)</t>
   </si>
   <si>
     <t>모두의 데이터 분석 with 파이썬 (실생활 예제로 시작하는 데이터 분석 첫걸음)</t>
   </si>
   <si>
+    <t>Do it! 장고+부트스트랩 파이썬 웹 개발의 정석 (웹 기초부터 블로그 개발 배포 운영까지, 만들면서 배우는 웹 개발 A to Z)</t>
+  </si>
+  <si>
     <t>파이썬 코딩의 기술 (Effective Python 2nd,똑똑하게 코딩하는 법)</t>
   </si>
   <si>
-    <t>Do it! 첫 파이썬 (게임하듯 배우는 나의 첫 프로그래밍 책)</t>
-  </si>
-  <si>
     <t>모두의 인공지능 with 파이썬 (누구나 쉽게 시작하는 딥러닝 기초 프로그래밍)</t>
   </si>
   <si>
-    <t>Do it! 장고+부트스트랩 파이썬 웹 개발의 정석 (웹 기초부터 블로그 개발 배포 운영까지, 만들면서 배우는 웹 개발 A to Z)</t>
+    <t>Let’s Get IT 파이썬 프로그래밍 (데이터 분석 프로젝트로 프로그래밍 사고력 기르기)</t>
   </si>
   <si>
     <t>파이썬 매일 코딩 (매일 10분, 50가지 연습 문제로 키우는 파이썬 코딩 실력!)</t>
   </si>
   <si>
-    <t>Let’s Get IT 파이썬 프로그래밍 (데이터 분석 프로젝트로 프로그래밍 사고력 기르기)</t>
+    <t>파이썬 인공지능 입문+실전 종합편 (한 권으로 끝내는, 파이썬+넘파이+텐서플로우로 인공지능 딥러닝 직접 구현하기)</t>
+  </si>
+  <si>
+    <t>파이썬 머신러닝 판다스 데이터 분석</t>
+  </si>
+  <si>
+    <t>파이썬 머신러닝 실무 테크닉 100</t>
   </si>
   <si>
     <t>머신러닝&amp;딥러닝 with 파이썬 (인공지능 핵심 개념과 사용 사례부터,한 권으로 다지는)</t>
   </si>
   <si>
+    <t>엑셀 자동화 with 파이썬 (복잡하고 지루한 반복 업무를 쉽고 빠르게 해치우는 방법,일 잘하는 직장인을 위한)</t>
+  </si>
+  <si>
+    <t>파이썬 라이브러리를 활용한 데이터 분석 (영화 평점, 이름 통계, 선거 데이터 등 실사례 사용)</t>
+  </si>
+  <si>
+    <t>파이썬 생활밀착형 프로젝트 (웹크롤링, 카카오톡 메시지 보내기, 업무자동화까지 11가지 파이썬프로젝트, 백견불여일타 이젠 프로젝트다!)</t>
+  </si>
+  <si>
+    <t>컴퓨팅 사고를 위한 파이썬</t>
+  </si>
+  <si>
     <t>파이썬 딥러닝 파이토치 (Python Deep Learning PyTorch)</t>
   </si>
   <si>
-    <t>파이썬 생활밀착형 프로젝트 (웹크롤링, 카카오톡 메시지 보내기, 업무자동화까지 11가지 파이썬프로젝트, 백견불여일타 이젠 프로젝트다!)</t>
-  </si>
-  <si>
-    <t>파이썬 인공지능 입문+실전 종합편 (한 권으로 끝내는, 파이썬+넘파이+텐서플로우로 인공지능 딥러닝 직접 구현하기)</t>
-  </si>
-  <si>
-    <t>엑셀 자동화 with 파이썬 (복잡하고 지루한 반복 업무를 쉽고 빠르게 해치우는 방법,일 잘하는 직장인을 위한)</t>
-  </si>
-  <si>
-    <t>파이썬 머신러닝 판다스 데이터 분석</t>
+    <t>파이썬으로 살펴보는 아키텍처 패턴 (TDD, DDD, EDM 적용하기)</t>
+  </si>
+  <si>
+    <t>파이썬과 데이터 과학 (따라하며 배우는)</t>
+  </si>
+  <si>
+    <t>데이터 과학을 위한 파이썬 머신러닝</t>
   </si>
   <si>
     <t>파이썬 데이터 클리닝 쿡북 (파이썬과 판다스를 활용한 데이터 전처리)</t>
   </si>
   <si>
-    <t>파이썬 라이브러리를 활용한 데이터 분석 (영화 평점, 이름 통계, 선거 데이터 등 실사례 사용)</t>
-  </si>
-  <si>
-    <t>파이썬 머신러닝 실무 테크닉 100</t>
+    <t>파이썬 라이브러리를 활용한 머신러닝 (번역개정판,사이킷런 핵심 개발자가 쓴 머신러닝과 데이터 과학 실무서)</t>
   </si>
   <si>
     <t>그림으로 배우는 파이썬</t>
   </si>
   <si>
-    <t>파이썬으로 살펴보는 아키텍처 패턴 (TDD, DDD, EDM 적용하기)</t>
+    <t>파이썬 GUI 프로그래밍 쿡북 (Tkinter, PyQt5를 활용한 반응형 사용자 인터페이스 개발)</t>
   </si>
   <si>
     <t>파이썬과 케라스를 이용한 딥러닝/강화학습 주식투자 (퀀트 투자 알고리즘 트레이딩을 위한 최첨단 해법 입문)</t>
@@ -133,789 +154,768 @@
     <t>파이썬 코딩 도장</t>
   </si>
   <si>
+    <t>두근두근 파이썬 (쉽고! 재밌고! 흥미로운 코딩 맛!)</t>
+  </si>
+  <si>
+    <t>파이썬 Express (파워 유저를 위한)</t>
+  </si>
+  <si>
+    <t>이것이 데이터 분석이다 with 파이썬 (파이썬으로 배우는 데이터 분석 입문)</t>
+  </si>
+  <si>
+    <t>머신 러닝·딥 러닝에 필요한 기초 수학 with 파이썬</t>
+  </si>
+  <si>
+    <t>데이터 과학 기반의 파이썬 빅데이터 분석 (IT@COOKBOOK)</t>
+  </si>
+  <si>
+    <t>직장인을 위한 데이터 분석 실무 with 파이썬 (마케팅, 영업, 기획 실무 담당자를 위한 데이터 분석의 기술)</t>
+  </si>
+  <si>
+    <t>파이썬 딥러닝 머신러닝 입문</t>
+  </si>
+  <si>
+    <t>파이썬과 코랩기반의 OpenCV로 배우는 영상처리</t>
+  </si>
+  <si>
+    <t>고성능 파이썬 (파이썬 성능 잠재력을 끌어내는 실용적인 개발 전략서)</t>
+  </si>
+  <si>
+    <t>AWS로 시작하는 AI 서비스 with 파이썬</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 게임 개발 (입문편, 미로, 진단 애플리케이션, RPG 등을, 블록 낙하 퍼즐,퀴즈, 주사위)</t>
+  </si>
+  <si>
+    <t>파이썬 고급 딥러닝</t>
+  </si>
+  <si>
+    <t>파이썬 딥러닝 프로젝트</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 포트폴리오 (금융공학/퀀트 투자의 기초부터 투자 모델, 머신 러닝까지!)</t>
+  </si>
+  <si>
+    <t>파이썬 데이터 분석 실무 테크닉 100 (100가지 예제로 배우는 데이터 가공, 머신러닝, 이미지/자연어 처리의 기술)</t>
+  </si>
+  <si>
+    <t>시간순삭 파이썬</t>
+  </si>
+  <si>
+    <t>누구나 파이썬 통계분석</t>
+  </si>
+  <si>
+    <t>처음 시작하는 파이썬 (파이썬 패키지를 활용한 모던 컴퓨팅 입문)</t>
+  </si>
+  <si>
+    <t>파이썬 딥러닝 텐서플로</t>
+  </si>
+  <si>
+    <t>엑셀과 비교하며 배우는 파이썬 데이터 분석</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 알고리즘 트레이딩 (아이디어 도출부터 클라우드 배포까지)</t>
+  </si>
+  <si>
+    <t>난생처음 컴퓨팅 사고 with 파이썬</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 컴퓨팅 사고 (문제해결 중심의 파이썬 프로그래밍)</t>
+  </si>
+  <si>
+    <t>C#과 파이썬을 활용한 OpenCV 4 프로그래밍 (컴퓨터 비전 기초 이론부터 머신러닝을 활용한 영상 처리 프로젝트까지)</t>
+  </si>
+  <si>
+    <t>파이썬 해킹 레시피 (웹 크롤링 및 취약점 진단 도구를 구현해보는 정보 보안 실습)</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 데이터 분석의 정석 (넘파이, 판다스, 맷플롯립과 실전 예제로 배우는)</t>
+  </si>
+  <si>
+    <t>파이썬 스킬 업 (기초를 넘어서, 파이썬을 파이썬답게 사용하자!)</t>
+  </si>
+  <si>
+    <t>똑똑한 파이썬 (주니어를 위한 최적의 코딩 학습서)</t>
+  </si>
+  <si>
+    <t>파이썬으로 만드는 인공지능</t>
+  </si>
+  <si>
+    <t>게임으로 배우는 파이썬</t>
+  </si>
+  <si>
+    <t>으뜸 파이썬 (프로그래밍을 사랑하는 두 교수가 작정하고 쓴 프로페셔널한 파이썬 개발자가 되는 비법)</t>
+  </si>
+  <si>
+    <t>파이썬으로 하는 데브옵스 (자동화, 클라우드, 머신러닝, 데이터 엔지니어링까지)</t>
+  </si>
+  <si>
+    <t>파이썬 (컴퓨팅 사고력을 키우는 SW 교육)</t>
+  </si>
+  <si>
+    <t>윤성우의 열혈 파이썬 기초편</t>
+  </si>
+  <si>
+    <t>엑셀 × 파이썬 업무 자동화 (매크로, VBA는 이제 낡았다!)</t>
+  </si>
+  <si>
+    <t>파이썬 클린 코드 (유지보수가 쉬운 파이썬 코드를 만드는 비결)</t>
+  </si>
+  <si>
+    <t>파이썬 챌린지 (150개의 코딩 과제로 배운다)</t>
+  </si>
+  <si>
     <t>특강마스터 파이썬 마스터 3급</t>
   </si>
   <si>
-    <t>이것이 데이터 분석이다 with 파이썬 (파이썬으로 배우는 데이터 분석 입문)</t>
-  </si>
-  <si>
-    <t>AWS로 시작하는 AI 서비스 with 파이썬</t>
-  </si>
-  <si>
-    <t>데이터 과학 기반의 파이썬 빅데이터 분석 (IT@COOKBOOK)</t>
-  </si>
-  <si>
-    <t>파이썬과 데이터 과학 (따라하며 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬 라이브러리를 활용한 머신러닝 (번역개정판,사이킷런 핵심 개발자가 쓴 머신러닝과 데이터 과학 실무서)</t>
-  </si>
-  <si>
-    <t>파이썬 GUI 프로그래밍 쿡북 (Tkinter, PyQt5를 활용한 반응형 사용자 인터페이스 개발)</t>
-  </si>
-  <si>
-    <t>고성능 파이썬 (파이썬 성능 잠재력을 끌어내는 실용적인 개발 전략서)</t>
-  </si>
-  <si>
-    <t>파이썬 딥러닝 머신러닝 입문</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 데이터 분석의 정석 (넘파이, 판다스, 맷플롯립과 실전 예제로 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬 데이터 분석 실무 테크닉 100 (100가지 예제로 배우는 데이터 가공, 머신러닝, 이미지/자연어 처리의 기술)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 게임 개발 (입문편, 미로, 진단 애플리케이션, RPG 등을, 블록 낙하 퍼즐,퀴즈, 주사위)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 포트폴리오 (금융공학/퀀트 투자의 기초부터 투자 모델, 머신 러닝까지!)</t>
-  </si>
-  <si>
-    <t>C#과 파이썬을 활용한 OpenCV 4 프로그래밍 (컴퓨터 비전 기초 이론부터 머신러닝을 활용한 영상 처리 프로젝트까지)</t>
-  </si>
-  <si>
-    <t>파이썬 해킹 레시피 (웹 크롤링 및 취약점 진단 도구를 구현해보는 정보 보안 실습)</t>
-  </si>
-  <si>
-    <t>파이썬 Express (파워 유저를 위한)</t>
-  </si>
-  <si>
-    <t>파이썬으로 만드는 인공지능</t>
-  </si>
-  <si>
-    <t>파이썬으로 하는 데브옵스 (자동화, 클라우드, 머신러닝, 데이터 엔지니어링까지)</t>
-  </si>
-  <si>
-    <t>직장인을 위한 데이터 분석 실무 with 파이썬 (마케팅, 영업, 기획 실무 담당자를 위한 데이터 분석의 기술)</t>
-  </si>
-  <si>
-    <t>파이썬 딥러닝 텐서플로</t>
+    <t>파이썬을 활용한 나만의 RPA 만들기 (2021)</t>
+  </si>
+  <si>
+    <t>IT 비전공자를 위한 돈 버는 파이썬 코딩 (N잡러 자동부업 수익창출)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 알고리즘 트레이딩 (내 손으로 만드는 자동 주식 거래 시스템)</t>
   </si>
   <si>
     <t>400제로 배우는 파이썬 입문 (취업 성공을 위한 속성 프로세스 + 400제 plus)</t>
   </si>
   <si>
-    <t>처음 시작하는 파이썬 (파이썬 패키지를 활용한 모던 컴퓨팅 입문)</t>
-  </si>
-  <si>
-    <t>머신 러닝·딥 러닝에 필요한 기초 수학 with 파이썬</t>
-  </si>
-  <si>
-    <t>누구나 파이썬 통계분석</t>
-  </si>
-  <si>
-    <t>두근두근 파이썬 (쉽고! 재밌고! 흥미로운 코딩 맛!)</t>
-  </si>
-  <si>
-    <t>시간순삭 파이썬</t>
-  </si>
-  <si>
-    <t>엑셀과 비교하며 배우는 파이썬 데이터 분석</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 알고리즘 트레이딩 (아이디어 도출부터 클라우드 배포까지)</t>
+    <t>구글과 파이썬으로 시작하는 보안 (취약점은 이제 끝! 실전 예제와 코드로 배우는 데이터 보호)</t>
+  </si>
+  <si>
+    <t>파이썬과 리액트를 활용한 주식 자동 거래 시스템 구축 (데이터 수집부터 거래 자동화, API 서버, 웹 개발, 데이터 분석까지 아우르는)</t>
+  </si>
+  <si>
+    <t>파이썬 기반 강화학습 알고리듬 (DP, Q-Learning, AC, DQN, TRPO, PPO, DDPG, TD3)</t>
+  </si>
+  <si>
+    <t>파이썬 웹프로그래밍 실전편 (Django장고를 활용한 쉽고 빠른 웹 개발)</t>
+  </si>
+  <si>
+    <t>파이썬 웹 프로그래밍 (Django장고로 배우는 쉽고 빠른 웹 개발)</t>
+  </si>
+  <si>
+    <t>파이썬으로 웹 크롤러 만들기 (초간단 나만의 웹 크롤러로 원하는 데이터를 가져오는 방법)</t>
+  </si>
+  <si>
+    <t>모두의 알고리즘 with 파이썬 (컴퓨팅 사고를 위한 기초 알고리즘)</t>
+  </si>
+  <si>
+    <t>Introduction to 파이썬 (338 예제로 완성하는 파이썬)</t>
+  </si>
+  <si>
+    <t>파이썬 자료구조와 알고리즘 for Beginner</t>
+  </si>
+  <si>
+    <t>파이썬 입문 (예제 중심)</t>
+  </si>
+  <si>
+    <t>금융 파이썬 쿡북 (금융 데이터 처리와 기술 분석부터 딥러닝 적용까지)</t>
+  </si>
+  <si>
+    <t>21개의 작고 재미난 파이썬 프로젝트 (프로그래밍 스킬, 새로운 알고리즘, 테스트 주도 개발을 배우다)</t>
+  </si>
+  <si>
+    <t>인공지능 100점을 위한 파이썬 수학 (고등학교 수학으로 이해하는 인공지능)</t>
+  </si>
+  <si>
+    <t>파이썬으로 완성하는 비지도 학습 알고리즘 (비감독 모형과 텐서플로 2를 이용한 전처리 기법의 머신러닝 구현)</t>
+  </si>
+  <si>
+    <t>바이오파이썬으로 만나는 생물정보학 (파이썬 프로그래밍을 통해 풀어보는 생명의 구조)</t>
+  </si>
+  <si>
+    <t>파이썬으로 데이터 주무르기 (독특한 예제를 통해 배우는 데이터 분석 입문)</t>
+  </si>
+  <si>
+    <t>생활코딩! 파이썬 (가볍게 시작하여 유용하게 사용하는 생활코딩! Python)</t>
+  </si>
+  <si>
+    <t>윤성우의 열혈 파이썬 중급편</t>
+  </si>
+  <si>
+    <t>모두의 파이썬 X 알고리즘 (합본호,누구나 쉽게 배우는 프로그래밍 기초)</t>
+  </si>
+  <si>
+    <t>데이터 과학을 위한 기초수학 with 파이썬</t>
+  </si>
+  <si>
+    <t>머신 러닝을 위한 수학 with 파이썬, R (딥러닝에 필요한 수학만 골라 담았다!)</t>
+  </si>
+  <si>
+    <t>깔끔한 파이썬 탄탄한 백엔드 (지금까지 없었던 백엔드 개발자를 위한 파이썬)</t>
+  </si>
+  <si>
+    <t>진지한 파이썬 (파이썬 작동 원리에서 확장, 테스트, 배포, 최적화까지)</t>
+  </si>
+  <si>
+    <t>파이썬 마스터 1·2급</t>
+  </si>
+  <si>
+    <t>잡아라! 텍스트 마이닝 with 파이썬 (지금 바로 할 수 있는 데이터 추출과 분석)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 게임 개발 (닷잇 액션, 탄막 슈팅, 맵 에티터,장애물 피하기,실전편)</t>
+  </si>
+  <si>
+    <t>파이썬으로 무인도 탈출하기</t>
+  </si>
+  <si>
+    <t>뚝딱뚝딱 파이썬 자동화 (다양한 연습 프로젝트를 통해 익히는 단순 반복 작업 해결 전략)</t>
+  </si>
+  <si>
+    <t>파이썬으로 쉽게 풀어쓴 자료구조</t>
+  </si>
+  <si>
+    <t>딥러닝 머신러닝을 위한 파이썬 넘파이</t>
+  </si>
+  <si>
+    <t>효율적 개발로 이끄는 파이썬 실천 기술 (파이썬에 숨겨진 힘을 이용해 개발 효율을 높이자!)</t>
   </si>
   <si>
     <t>파이썬 2학년 스크래핑의 구조 (체험으로 배우고! 대화 형식으로 공부!,Python)</t>
   </si>
   <si>
+    <t>실무자를 위한 파이썬 100제</t>
+  </si>
+  <si>
+    <t>모두의 라즈베리파이 with 파이썬 (누구나 쉽게 배우는 전자 회로 공작과 파이썬 프로그래밍)</t>
+  </si>
+  <si>
+    <t>파이썬 비동기 라이브러리 Asyncio (대규모 병행성 작업을 위한 비동기 프로그래밍)</t>
+  </si>
+  <si>
+    <t>파이썬과 케라스로 배우는 강화학습 (내 손으로 직접 구현하는 게임 인공지능)</t>
+  </si>
+  <si>
+    <t>따라하면서 배우는 파이썬</t>
+  </si>
+  <si>
+    <t>파이썬 딥러닝으로 시작하는 이상 징후 탐지</t>
+  </si>
+  <si>
+    <t>파이썬 데이터 사이언스 핸드북 (IPython, Jupyter, NumPy, Pandas, Matplotlib, Scikit-Learn)</t>
+  </si>
+  <si>
+    <t>파이썬 철저 입문 (데이터 분석을 위한,기초 문법부터 실무에 필요한 데이터 분석 기술까지 한 번에 배우는)</t>
+  </si>
+  <si>
+    <t>파이썬 날코딩으로 알고 짜는 딥러닝 (프레임워크 없이 단층 퍼셉트론에서 GAN까지)</t>
+  </si>
+  <si>
+    <t>코드업과 함께 하는 파이썬 &amp; 문제 해결 (누구나 쉽게 배우는 프로그래밍 입문서)</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 (데이터 과학을 위한)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 지리공간 분석 마스터하기 (GeoDjango, CARTOframes, MapboxGL-Jupyter를 활용한 GIS 프로세싱)</t>
+  </si>
+  <si>
+    <t>연오의 파이썬 (친절한 개념 설명과 체계적인 예제로 배우는)</t>
+  </si>
+  <si>
+    <t>파이썬 자료구조와 알고리즘 (기초 튼튼, 핵심 쏙쏙, 실력 쑥쑥)</t>
+  </si>
+  <si>
+    <t>어서와 파이썬은 처음이지!</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 인터랙티브 대시보드 만들기</t>
+  </si>
+  <si>
+    <t>파이썬 데이터 과학 통계 학습</t>
+  </si>
+  <si>
+    <t>파이썬 기반의 AI를 위한 기초수학, 확률 및 통계</t>
+  </si>
+  <si>
+    <t>Step by Step 파이썬 비즈니스 통계분석, 빅 데이터 분석 자격증 통계 분야 학습서</t>
+  </si>
+  <si>
+    <t>슬기로운 파이썬생활 데이터 싹쓰리 &amp; 업무자동화</t>
+  </si>
+  <si>
+    <t>파이썬으로 시작하는 캐글 (예제 코드 상세 해설 수록,입문에서 컴피티션까지)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 통계학 교과서 (기초 이론부터, 모델, 머신러닝까지)</t>
+  </si>
+  <si>
+    <t>클린 파이썬 (효과적인 파이썬 코딩 기법)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 자료 구조 핵심 원리 (핵심 개념과 동작 원리로 이해하는 자료 구조)</t>
+  </si>
+  <si>
+    <t>파이썬으로 코딩하는 물리</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 자연어 처리 인 액션</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 머신러닝, 딥러닝 실전 개발 입문 (웹 크롤링과 스크레이핑부터 머신러닝ㆍ딥러닝까지 체계적으로 배우기)</t>
+  </si>
+  <si>
+    <t>퀀트 전략 파이썬으로 세워라 (누구나 시작할 수 있는 파이썬 퀀트 투자 첫 단추)</t>
+  </si>
+  <si>
+    <t>파이썬 데이터 분석 입문 (엑셀 및 CSV 파일 처리부터 데이터베이스, 시각화, 통계분석, 자동화까지)</t>
+  </si>
+  <si>
+    <t>파이썬으로 캐글 뽀개기 (파이썬으로 시작해서 포트폴리오로 취업까지)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 금융공학 레시피 (문과생의 코딩 울렁증과 이과생의 금융 울렁증을 한 방에 씻어줄 금융공학 사이다)</t>
+  </si>
+  <si>
+    <t>핵고수 파이썬으로 다시 배우는 핵심 고등 수학 (수포자 프로그래머를 위한 손에 잡히는 기초 수학)</t>
+  </si>
+  <si>
+    <t>COS Pro 2급 파이썬 (프로그래머를 향한 출발점,교재+모의고사)</t>
+  </si>
+  <si>
+    <t>초보자를 위한 파이썬 200제 (Python)</t>
+  </si>
+  <si>
+    <t>창의적 문제 해결을 위한 파이썬 프로그래밍</t>
+  </si>
+  <si>
+    <t>나의 첫 파이썬 (전 세계가 선택한 프로젝트 기반 프로그래밍 입문서)</t>
+  </si>
+  <si>
+    <t>파이썬으로 시작하는 데이터 분석 (데이터 분석을 위한 Python 문법부터 데이터 수집, 전처리, 탐색까지)</t>
+  </si>
+  <si>
+    <t>난생처음 파이썬 프로그래밍</t>
+  </si>
+  <si>
+    <t>셜록 홈즈 만화로 배우는 파이썬 : 8주 안에 끝내는 가장 쉬운 파이썬</t>
+  </si>
+  <si>
+    <t>파이썬 알고리즘</t>
+  </si>
+  <si>
+    <t>바로 쓰는 파이썬 기초 편</t>
+  </si>
+  <si>
+    <t>파이썬 디자인 패턴 2/e 디자인 패턴을 사용해 소프트웨어 설계 문제 해결하기</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 수치해석</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 통계적 머신러닝</t>
+  </si>
+  <si>
+    <t>마인크래프트로 배우는 파이썬 프로그래밍</t>
+  </si>
+  <si>
+    <t>파이썬과 함께하는 AI젯봇 (젯슨나노 활용 포함)</t>
+  </si>
+  <si>
+    <t>돈 되는 파이썬 인공지능 프로그래밍 (회사 매출을 올리는 AI 도입과 활용법)</t>
+  </si>
+  <si>
+    <t>마이크로비트로 배우는 파이썬 (하드웨어를 동작시키며 진짜 재미있게 배우는 파이썬 입문 활용서!)</t>
+  </si>
+  <si>
+    <t>파이썬 (문제해결과 컴퓨팅 사고를 위한)</t>
+  </si>
+  <si>
+    <t>파이썬으로 챗봇 만들기 (자연어 처리와 머신러닝을 이용하여)</t>
+  </si>
+  <si>
+    <t>자기주도 파이썬 (정보영재 및 올림피아드를 위한 최적의 입문서, 혼자서도 쉽게 익힐 수 있는)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 소프트웨어 아키텍처 (견고하고 확장 가능한 애플리케이션 아키텍처 설계)</t>
+  </si>
+  <si>
+    <t>파이썬 2학년 데이터 분석 구조</t>
+  </si>
+  <si>
+    <t>파이썬 마스터 3급</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 머신러닝의 교과서 (그림으로 이해하고 코드로 확인하는 머신러닝, 딥러닝 기초)</t>
+  </si>
+  <si>
+    <t>파이썬 OpenCV를 이용한 영상처리</t>
+  </si>
+  <si>
+    <t>파이썬 네트워크 프로그래밍 (IOT 사물인터넷을 위한)</t>
+  </si>
+  <si>
+    <t>파이썬과 피지컬 컴퓨팅</t>
+  </si>
+  <si>
+    <t>모두의 데이터 과학 with 파이썬 (수집 정리 탐구 예측 가치로 배우는 기초 데이터 과학)</t>
+  </si>
+  <si>
+    <t>금융 데이터를 위한 파이썬 (부동산&amp;주식 데이터 수집ㆍ분석ㆍ활용까지)</t>
+  </si>
+  <si>
+    <t>프로그래머를 위한 파이썬 (실전 프로젝트로 배우는 소프트웨어 개발의 원리와 정석)</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 (컴퓨터 비전공자를 위한 인공지능 활용의 시작)</t>
+  </si>
+  <si>
+    <t>파이썬 코딩 수학 with 딥러닝 (수학적 사고력 향상을 위한)</t>
+  </si>
+  <si>
+    <t>컴퓨팅 사고와 함께하는 파이썬 기초부터 인공지능 응용까지</t>
+  </si>
+  <si>
+    <t>Do it! 점프 투 파이썬 (이미 50만 명이 '점프 투 파이썬'으로 프로그래밍을 시작했다!)</t>
+  </si>
+  <si>
+    <t>파이썬으로 텍스트 분석하기 (전략커뮤니케이션을 위한 파이썬 텍스트 마이닝)</t>
+  </si>
+  <si>
+    <t>한권으로 파이썬과 드론 날로 먹기 (드론포함,인공지능편)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 딥러닝 교과서</t>
+  </si>
+  <si>
+    <t>파이썬 (비전공자의 데이터 분석을 위한)</t>
+  </si>
+  <si>
+    <t>문과생을 위한 파이썬</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 딥러닝 전이학습 (Transfer Learning으로 빠르고 손쉽게 구축하는 고급 딥러닝 모델)</t>
+  </si>
+  <si>
+    <t>파이썬과R(2학기, 워크북포함)</t>
+  </si>
+  <si>
+    <t>핵심만 쏙쏙 파이썬</t>
+  </si>
+  <si>
+    <t>데이터 시각화 with 파이썬</t>
+  </si>
+  <si>
     <t>전문가를 위한 파이썬 (간단하고, 명료하고, 효율적인 파이썬 프로그래밍,파이썬3 버전 기준)</t>
   </si>
   <si>
-    <t>똑똑한 파이썬 (주니어를 위한 최적의 코딩 학습서)</t>
-  </si>
-  <si>
-    <t>파이썬으로 완성하는 비지도 학습 알고리즘 (비감독 모형과 텐서플로 2를 이용한 전처리 기법의 머신러닝 구현)</t>
-  </si>
-  <si>
-    <t>파이썬 for Beginner (쉽고 빠르게 익히는 프로그래밍의 기본 원리)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 알고리즘 트레이딩 (내 손으로 만드는 자동 주식 거래 시스템)</t>
-  </si>
-  <si>
-    <t>파이썬과 리액트를 활용한 주식 자동 거래 시스템 구축 (데이터 수집부터 거래 자동화, API 서버, 웹 개발, 데이터 분석까지 아우르는)</t>
-  </si>
-  <si>
-    <t>파이썬 스킬 업 (기초를 넘어서, 파이썬을 파이썬답게 사용하자!)</t>
-  </si>
-  <si>
-    <t>IT 비전공자를 위한 돈 버는 파이썬 코딩 (N잡러 자동부업 수익창출)</t>
-  </si>
-  <si>
-    <t>엑셀 × 파이썬 업무 자동화 (매크로, VBA는 이제 낡았다!)</t>
-  </si>
-  <si>
-    <t>파이썬 입문 (예제 중심)</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 (데이터 과학을 위한)</t>
-  </si>
-  <si>
-    <t>윤성우의 열혈 파이썬 기초편</t>
-  </si>
-  <si>
-    <t>파이썬으로 웹 크롤러 만들기 (초간단 나만의 웹 크롤러로 원하는 데이터를 가져오는 방법)</t>
-  </si>
-  <si>
-    <t>파이썬 챌린지 (150개의 코딩 과제로 배운다)</t>
-  </si>
-  <si>
-    <t>게임으로 배우는 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬 웹 프로그래밍 (Django장고로 배우는 쉽고 빠른 웹 개발)</t>
-  </si>
-  <si>
-    <t>파이썬 기반 강화학습 알고리듬 (DP, Q-Learning, AC, DQN, TRPO, PPO, DDPG, TD3)</t>
-  </si>
-  <si>
-    <t>셜록 홈즈 만화로 배우는 파이썬 : 8주 안에 끝내는 가장 쉬운 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬 클린 코드 (유지보수가 쉬운 파이썬 코드를 만드는 비결)</t>
-  </si>
-  <si>
-    <t>난생처음 컴퓨팅 사고 with 파이썬</t>
-  </si>
-  <si>
-    <t>윤성우의 열혈 파이썬 중급편</t>
-  </si>
-  <si>
-    <t>금융 파이썬 쿡북 (금융 데이터 처리와 기술 분석부터 딥러닝 적용까지)</t>
-  </si>
-  <si>
-    <t>모두의 알고리즘 with 파이썬 (컴퓨팅 사고를 위한 기초 알고리즘)</t>
-  </si>
-  <si>
-    <t>Introduction to 파이썬 (338 예제로 완성하는 파이썬)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 컴퓨팅 사고 (문제해결 중심의 파이썬 프로그래밍)</t>
-  </si>
-  <si>
-    <t>파이썬 웹프로그래밍 실전편 (Django장고를 활용한 쉽고 빠른 웹 개발)</t>
-  </si>
-  <si>
-    <t>구글과 파이썬으로 시작하는 보안 (취약점은 이제 끝! 실전 예제와 코드로 배우는 데이터 보호)</t>
-  </si>
-  <si>
-    <t>파이썬 마스터 1·2급</t>
-  </si>
-  <si>
-    <t>잡아라! 텍스트 마이닝 with 파이썬 (지금 바로 할 수 있는 데이터 추출과 분석)</t>
-  </si>
-  <si>
-    <t>21개의 작고 재미난 파이썬 프로젝트 (프로그래밍 스킬, 새로운 알고리즘, 테스트 주도 개발을 배우다)</t>
-  </si>
-  <si>
-    <t>파이썬 데이터 과학 통계 학습</t>
-  </si>
-  <si>
-    <t>바이오파이썬으로 만나는 생물정보학 (파이썬 프로그래밍을 통해 풀어보는 생명의 구조)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 나만의 RPA 만들기 (2021)</t>
-  </si>
-  <si>
-    <t>데이터 과학을 위한 기초수학 with 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬으로 데이터 주무르기 (독특한 예제를 통해 배우는 데이터 분석 입문)</t>
-  </si>
-  <si>
-    <t>딥러닝 머신러닝을 위한 파이썬 넘파이</t>
-  </si>
-  <si>
-    <t>생활코딩! 파이썬 (가볍게 시작하여 유용하게 사용하는 생활코딩! Python)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 게임 개발 (닷잇 액션, 탄막 슈팅, 맵 에티터,장애물 피하기,실전편)</t>
-  </si>
-  <si>
-    <t>뚝딱뚝딱 파이썬 자동화 (다양한 연습 프로젝트를 통해 익히는 단순 반복 작업 해결 전략)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 머신러닝, 딥러닝 실전 개발 입문 (웹 크롤링과 스크레이핑부터 머신러닝ㆍ딥러닝까지 체계적으로 배우기)</t>
-  </si>
-  <si>
-    <t>파이썬 딥러닝으로 시작하는 이상 징후 탐지</t>
-  </si>
-  <si>
-    <t>실무자를 위한 파이썬 100제</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 통계학 교과서 (기초 이론부터, 모델, 머신러닝까지)</t>
-  </si>
-  <si>
-    <t>깔끔한 파이썬 탄탄한 백엔드 (지금까지 없었던 백엔드 개발자를 위한 파이썬)</t>
+    <t>한 번 배운 파이썬, 나만의 활용 스킬 (개발자가 아니어도 도전하는 일상과 업무 자동화)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 생명정보학</t>
+  </si>
+  <si>
+    <t>컴퓨팅 사고와 파이썬 (문제해결을 위한)</t>
+  </si>
+  <si>
+    <t>파이썬으로 시작하는 로봇 활용 SW 교육 햄스터</t>
+  </si>
+  <si>
+    <t>파이썬 해킹 입문 (공격의 언어 파이썬을 이용한 해킹 연습)</t>
+  </si>
+  <si>
+    <t>코딩수학 파이썬 1</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 응용 텍스트 분석 (언어 인식 데이터 제품 개발을 위한 머신러닝)</t>
+  </si>
+  <si>
+    <t>배프의 오지랖 파이썬 웹프로그래밍 (Django로 쉽게 배우는)</t>
+  </si>
+  <si>
+    <t>파이썬에 참 좋은 PyCharm (나에게 가장 필요한 파이썬 개발 환경 구축하기)</t>
+  </si>
+  <si>
+    <t>파이썬 (비전공자를위한 파이썬 기초 입문서,한 권으로 끝내는)</t>
+  </si>
+  <si>
+    <t>파이썬의 정석 (파이썬 본질에 집중하다)</t>
+  </si>
+  <si>
+    <t>셜록 홈즈 만화로 배우는 파이썬</t>
+  </si>
+  <si>
+    <t>이젠 나도! 파이썬 (지금 시작해도 괜찮아)</t>
+  </si>
+  <si>
+    <t>모두의 엔트리 with 엔트리파이썬 (코딩! 블록으로 이해하고 파이썬 코드로 익힌다)</t>
+  </si>
+  <si>
+    <t>파이썬과 케라스를 이용한 딥러닝/강화학습 주식투자 (퀀트 투자, 알고리즘 트레이딩을 위한 최첨단 해법 입문)</t>
+  </si>
+  <si>
+    <t>한권으로 파이썬과 드론 날로먹기 (인공지능 편)</t>
+  </si>
+  <si>
+    <t>그림과 함께하는 파이썬 수업</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 누구나 코딩</t>
+  </si>
+  <si>
+    <t>생각대로 파이썬 파이썬 첫걸음 (파이썬 성장프로젝트/ 파이썬 기초부터 인공지능까지)</t>
+  </si>
+  <si>
+    <t>객체지향 프로그래밍(파이썬)</t>
+  </si>
+  <si>
+    <t>파이썬 (Python,다양한 예제로 배우는 완전 쉬운)</t>
+  </si>
+  <si>
+    <t>진짜 코딩하며 배우는 파이썬 (바리스타 프로그램 만들기)</t>
+  </si>
+  <si>
+    <t>파이썬 1학년 (Python, 만화와 대화로 공부해 인공지능 앱까지 도전!)</t>
+  </si>
+  <si>
+    <t>파이썬ㆍ케라스로 시작하는 AI기초 (구글 코랩 활용)</t>
+  </si>
+  <si>
+    <t>한권으로 파이썬 데이터 사이언스 입문 A to Z</t>
+  </si>
+  <si>
+    <t>파이썬으로 움직이는 EV3 로봇</t>
+  </si>
+  <si>
+    <t>차근차근 파이썬 코딩 실습 (연구활용 대기과학편)</t>
+  </si>
+  <si>
+    <t>파이썬과 수치 해석 (파이썬 수치 해석 레시피)</t>
+  </si>
+  <si>
+    <t>머신러닝을 위한 파이썬 한 조각 (파이썬으로 이해하는 인공지능의 시작)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 머신러닝 쿡북 (전처리에서 딥러닝까지, 팬더스와 사이킷런 중심의 실전 문제 해결 200선)</t>
+  </si>
+  <si>
+    <t>Hello Coding 한입에 쏙 파이썬 (크리에이터 김왼손의 쉽고 빠른 파이썬 강의)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 데이터 분석과 응용</t>
+  </si>
+  <si>
+    <t>파이썬과 NumPy로 배우는 선형대수 (파이썬 라이브러리로 쉽게 구현하는 수치해석 프로그래밍)</t>
+  </si>
+  <si>
+    <t>파이썬과 대스크를 활용한 고성능 데이터 분석 (대규모 데이터셋 분석, 시각화, 모델링부터 분산 앱 패키징과 배포까지)</t>
+  </si>
+  <si>
+    <t>파이썬을 활용한 금융 분석 (파이썬의 기초부터 금융공학, 수학, 정량 분석, 시스템 구현까지)</t>
+  </si>
+  <si>
+    <t>마인크래프트와 함께 즐겁게 파이썬 (게임으로 재미있게 배우는 코딩과 알고리즘)</t>
+  </si>
+  <si>
+    <t>Flask 기반의 파이썬 웹 프로그래밍</t>
+  </si>
+  <si>
+    <t>파이썬 코딩 0교시 (대세는 국영수코! 교과서보다 먼저 만나는 첫 코딩)</t>
+  </si>
+  <si>
+    <t>초보자도 간단히 단숨에 배우는 파이썬 (쉽게 빠르게 편하게 시작하는 프로그래밍 입문)</t>
+  </si>
+  <si>
+    <t>프로그래머를 위한 베이지안 with 파이썬 (파이썬과 PyMC로 구현하며 익히는 베이지안 방법론)</t>
   </si>
   <si>
     <t>파이썬으로 만드는 OpenCV 프로젝트 (간단한 영상 입출력부터 머신러닝까지)</t>
   </si>
   <si>
-    <t>초보자를 위한 파이썬 200제 (Python)</t>
-  </si>
-  <si>
-    <t>으뜸 파이썬 (프로그래밍을 사랑하는 두 교수가 작정하고 쓴)</t>
-  </si>
-  <si>
-    <t>파이썬으로 챗봇 만들기 (자연어 처리와 머신러닝을 이용하여)</t>
-  </si>
-  <si>
-    <t>파이썬으로 쉽게 풀어쓴 자료구조</t>
-  </si>
-  <si>
-    <t>Step by Step 파이썬 비즈니스 통계분석, 빅 데이터 분석 자격증 통계 분야 학습서</t>
-  </si>
-  <si>
-    <t>파이썬 (컴퓨팅 사고력을 키우는 SW 교육)</t>
-  </si>
-  <si>
-    <t>파이썬 철저 입문 (데이터 분석을 위한,기초 문법부터 실무에 필요한 데이터 분석 기술까지 한 번에 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬 (컴퓨팅 사고를 위한)</t>
-  </si>
-  <si>
-    <t>파이썬과 케라스로 배우는 강화학습 (내 손으로 직접 구현하는 게임 인공지능)</t>
-  </si>
-  <si>
-    <t>진지한 파이썬 (파이썬 작동 원리에서 확장, 테스트, 배포, 최적화까지)</t>
-  </si>
-  <si>
-    <t>파이썬 기반의 AI를 위한 기초수학, 확률 및 통계</t>
-  </si>
-  <si>
-    <t>머신 러닝을 위한 수학 with 파이썬, R (딥러닝에 필요한 수학만 골라 담았다!)</t>
-  </si>
-  <si>
-    <t>인공지능 100점을 위한 파이썬 수학 (고등학교 수학으로 이해하는 인공지능)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 자연어 처리 인 액션</t>
-  </si>
-  <si>
-    <t>모두의 파이썬 X 알고리즘 (합본호,누구나 쉽게 배우는 프로그래밍 기초)</t>
-  </si>
-  <si>
-    <t>파이썬 자료구조와 알고리즘 for Beginner</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 인터랙티브 대시보드 만들기</t>
-  </si>
-  <si>
-    <t>어서와 파이썬은 처음이지!</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 금융공학 레시피 (문과생의 코딩 울렁증과 이과생의 금융 울렁증을 한 방에 씻어줄 금융공학 사이다)</t>
-  </si>
-  <si>
-    <t>파이썬 데이터 분석 입문 (엑셀 및 CSV 파일 처리부터 데이터베이스, 시각화, 통계분석, 자동화까지)</t>
-  </si>
-  <si>
-    <t>파이썬으로 시작하는 데이터 분석 (데이터 분석을 위한 Python 문법부터 데이터 수집, 전처리, 탐색까지)</t>
-  </si>
-  <si>
-    <t>파이썬과 함께하는 AI젯봇 (젯슨나노 활용 포함)</t>
-  </si>
-  <si>
-    <t>난생처음 파이썬 프로그래밍</t>
-  </si>
-  <si>
-    <t>셜록 홈즈 만화로 배우는 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬 알고리즘</t>
-  </si>
-  <si>
-    <t>파이썬으로 무인도 탈출하기</t>
-  </si>
-  <si>
-    <t>파이썬 비동기 라이브러리 Asyncio (대규모 병행성 작업을 위한 비동기 프로그래밍)</t>
-  </si>
-  <si>
-    <t>파이썬으로 캐글 뽀개기 (파이썬으로 시작해서 포트폴리오로 취업까지)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 자료 구조 핵심 원리 (핵심 개념과 동작 원리로 이해하는 자료 구조)</t>
-  </si>
-  <si>
-    <t>돈 되는 파이썬 인공지능 프로그래밍 (회사 매출을 올리는 AI 도입과 활용법)</t>
-  </si>
-  <si>
-    <t>파이썬 2학년 데이터 분석 구조</t>
-  </si>
-  <si>
-    <t>모두의 라즈베리파이 with 파이썬 (누구나 쉽게 배우는 전자 회로 공작과 파이썬 프로그래밍)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 지리공간 분석 마스터하기 (GeoDjango, CARTOframes, MapboxGL-Jupyter를 활용한 GIS 프로세싱)</t>
-  </si>
-  <si>
-    <t>COS Pro 2급 파이썬 (프로그래머를 향한 출발점,교재+모의고사)</t>
-  </si>
-  <si>
-    <t>파이썬 날코딩으로 알고 짜는 딥러닝 (프레임워크 없이 단층 퍼셉트론에서 GAN까지)</t>
-  </si>
-  <si>
-    <t>파이썬 네트워크 프로그래밍 (IOT 사물인터넷을 위한)</t>
-  </si>
-  <si>
-    <t>창의적 문제 해결을 위한 파이썬 프로그래밍</t>
-  </si>
-  <si>
-    <t>연오의 파이썬 (친절한 개념 설명과 체계적인 예제로 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬 데이터 사이언스 핸드북 (IPython, Jupyter, NumPy, Pandas, Matplotlib, Scikit-Learn)</t>
-  </si>
-  <si>
-    <t>슬기로운 파이썬생활 데이터 싹쓰리 &amp; 업무자동화</t>
-  </si>
-  <si>
-    <t>코드업과 함께 하는 파이썬 &amp; 문제 해결 (누구나 쉽게 배우는 프로그래밍 입문서)</t>
-  </si>
-  <si>
-    <t>파이썬으로 시작하는 캐글 (예제 코드 상세 해설 수록,입문에서 컴피티션까지)</t>
-  </si>
-  <si>
-    <t>파이썬 마스터 3급</t>
-  </si>
-  <si>
-    <t>그림과 함께하는 파이썬 수업</t>
-  </si>
-  <si>
-    <t>파이썬 자료구조와 알고리즘 (기초 튼튼, 핵심 쏙쏙, 실력 쑥쑥)</t>
-  </si>
-  <si>
-    <t>금융 데이터를 위한 파이썬 (부동산&amp;주식 데이터 수집ㆍ분석ㆍ활용까지)</t>
-  </si>
-  <si>
-    <t>파이썬으로 시작하는 로봇 활용 SW 교육 햄스터</t>
-  </si>
-  <si>
-    <t>클린 파이썬 (효과적인 파이썬 코딩 기법)</t>
-  </si>
-  <si>
-    <t>파이썬으로 코딩하는 물리</t>
-  </si>
-  <si>
-    <t>파이썬 디자인 패턴 2/e 디자인 패턴을 사용해 소프트웨어 설계 문제 해결하기</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 소프트웨어 아키텍처 (견고하고 확장 가능한 애플리케이션 아키텍처 설계)</t>
-  </si>
-  <si>
-    <t>컴퓨팅 사고와 함께하는 파이썬 기초부터 인공지능 응용까지</t>
-  </si>
-  <si>
-    <t>파이썬 (문제해결과 컴퓨팅 사고를 위한)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 통계적 머신러닝</t>
-  </si>
-  <si>
-    <t>마이크로비트로 배우는 파이썬 (하드웨어를 동작시키며 진짜 재미있게 배우는 파이썬 입문 활용서!)</t>
-  </si>
-  <si>
-    <t>나의 첫 파이썬(2판) (전 세계가 선택한 프로젝트 기반 프로그래밍 입문서)</t>
-  </si>
-  <si>
-    <t>파이썬과 피지컬 컴퓨팅</t>
-  </si>
-  <si>
-    <t>효율적 개발로 이끄는 파이썬 실천 기술 (파이썬에 숨겨진 힘을 이용해 개발 효율을 높이자!)</t>
-  </si>
-  <si>
-    <t>핵심만 쏙쏙 파이썬</t>
-  </si>
-  <si>
-    <t>퀀트 전략 파이썬으로 세워라 (누구나 시작할 수 있는 파이썬 퀀트 투자 첫 단추)</t>
-  </si>
-  <si>
-    <t>파이썬 OpenCV를 이용한 영상처리</t>
-  </si>
-  <si>
-    <t>한권으로 파이썬과 드론 날로 먹기 (드론포함,인공지능편)</t>
-  </si>
-  <si>
-    <t>한권으로 파이썬과 드론 날로먹기 (인공지능 편)</t>
-  </si>
-  <si>
-    <t>파이썬 코딩 0교시 (대세는 국영수코! 교과서보다 먼저 만나는 첫 코딩)</t>
-  </si>
-  <si>
-    <t>한 번 배운 파이썬, 나만의 활용 스킬 (개발자가 아니어도 도전하는 일상과 업무 자동화)</t>
-  </si>
-  <si>
-    <t>파이썬 (비전공자의 데이터 분석을 위한)</t>
-  </si>
-  <si>
-    <t>프로그래머를 위한 파이썬 (실전 프로젝트로 배우는 소프트웨어 개발의 원리와 정석)</t>
-  </si>
-  <si>
-    <t>핵고수 파이썬으로 다시 배우는 핵심 고등 수학 (수포자 프로그래머를 위한 손에 잡히는 기초 수학)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 딥러닝 교과서</t>
-  </si>
-  <si>
-    <t>Do it! 점프 투 파이썬 (이미 50만 명이 '점프 투 파이썬'으로 프로그래밍을 시작했다!)</t>
-  </si>
-  <si>
-    <t>파이썬 1학년 (Python, 만화와 대화로 공부해 인공지능 앱까지 도전!)</t>
-  </si>
-  <si>
-    <t>배프의 오지랖 파이썬 웹프로그래밍 (Django로 쉽게 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬과R(2학기, 워크북포함)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 누구나 코딩</t>
-  </si>
-  <si>
-    <t>파이썬 코딩 수학 with 딥러닝 (수학적 사고력 향상을 위한)</t>
-  </si>
-  <si>
-    <t>마인크래프트로 배우는 파이썬 프로그래밍</t>
-  </si>
-  <si>
-    <t>생각대로 파이썬 파이썬 첫걸음 (파이썬 성장프로젝트/ 파이썬 기초부터 인공지능까지)</t>
+    <t>고전 컴퓨터 알고리즘 인 파이썬 (피보나치 수열부터 보드게임까지, 알고리즘으로 풀어보는 고전 문제 43선)</t>
+  </si>
+  <si>
+    <t>퍼즐로 배우는 알고리즘 with 파이썬 (21가지 퍼즐을 풀면서 배우는 알고리즘과 프로그래밍의 원리)</t>
+  </si>
+  <si>
+    <t>데이터를 다루며 배우는 파이썬 (Python for Everybody)</t>
+  </si>
+  <si>
+    <t>이토록 쉬운 딥러닝을 위한 기초수학 with 파이썬</t>
+  </si>
+  <si>
+    <t>Step by Step 파이썬 비즈니스 통계분석</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 초중등 교과서 1 (즐겁게 시작하고 똑똑하게 끝내는 코딩 교과서)</t>
+  </si>
+  <si>
+    <t>파이썬 Jupyter Notebook 실전 입문</t>
+  </si>
+  <si>
+    <t>수학으로 배우는 파이썬 (초등 수학으로 재밌고 쉽게 파이썬 배우기)</t>
+  </si>
+  <si>
+    <t>파이썬</t>
+  </si>
+  <si>
+    <t>파이썬과 Fraudit을 활용한 회계부정적발</t>
+  </si>
+  <si>
+    <t>자연어 처리 쿡북 with 파이썬 (파이썬으로 NLP를 구현하는 60여 가지 레시피)</t>
+  </si>
+  <si>
+    <t>파이썬 데이터 전처리 및 탐색 라이브러리</t>
+  </si>
+  <si>
+    <t>파이썬이 보이는 그림책 (국내 최초 그림으로 배우는 프로그래밍 입문서)</t>
   </si>
   <si>
     <t>입문자를 위한 파이썬 프로그래밍</t>
   </si>
   <si>
-    <t>파이썬의 정석 (파이썬 본질에 집중하다)</t>
-  </si>
-  <si>
-    <t>컴퓨팅 사고와 파이썬 (문제해결을 위한)</t>
-  </si>
-  <si>
-    <t>데이터 시각화 with 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬에 참 좋은 PyCharm (나에게 가장 필요한 파이썬 개발 환경 구축하기)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 머신러닝 쿡북 (전처리에서 딥러닝까지, 팬더스와 사이킷런 중심의 실전 문제 해결 200선)</t>
-  </si>
-  <si>
-    <t>자기주도 파이썬 (정보영재 및 올림피아드를 위한 최적의 입문서, 혼자서도 쉽게 익힐 수 있는)</t>
-  </si>
-  <si>
-    <t>파이썬ㆍ케라스로 시작하는 AI기초 (구글 코랩 활용)</t>
-  </si>
-  <si>
-    <t>모두의 데이터 과학 with 파이썬 (수집 정리 탐구 예측 가치로 배우는 기초 데이터 과학)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 생명정보학</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 (컴퓨터 비전공자를 위한 인공지능 활용의 시작)</t>
-  </si>
-  <si>
-    <t>진짜 코딩하며 배우는 파이썬 (바리스타 프로그램 만들기)</t>
-  </si>
-  <si>
-    <t>파이썬 (비전공자를위한 파이썬 기초 입문서,한 권으로 끝내는)</t>
+    <t>파이썬 함수 사용 설명서 (내장함수,클래스,메서드 편, 기초부터 탄탄히)</t>
+  </si>
+  <si>
+    <t>창의적 프로그래밍을 위한 파이썬</t>
+  </si>
+  <si>
+    <t>차근차근 파이썬 코딩 실습 : 기본편</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 교과서</t>
+  </si>
+  <si>
+    <t>Python을 이용한 데이터 분석과 시각화</t>
   </si>
   <si>
     <t>알기 쉬운 인공지능 with 파이썬</t>
   </si>
   <si>
-    <t>파이썬으로 배우는 초중등 교과서 1 (즐겁게 시작하고 똑똑하게 끝내는 코딩 교과서)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 딥러닝 전이학습 (Transfer Learning으로 빠르고 손쉽게 구축하는 고급 딥러닝 모델)</t>
-  </si>
-  <si>
-    <t>파이썬과 NumPy로 배우는 선형대수 (파이썬 라이브러리로 쉽게 구현하는 수치해석 프로그래밍)</t>
-  </si>
-  <si>
-    <t>파이썬과 케라스를 이용한 딥러닝/강화학습 주식투자 (퀀트 투자, 알고리즘 트레이딩을 위한 최첨단 해법 입문)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 수치해석</t>
-  </si>
-  <si>
-    <t>이젠 나도! 파이썬 (지금 시작해도 괜찮아)</t>
-  </si>
-  <si>
-    <t>문과생을 위한 파이썬</t>
-  </si>
-  <si>
-    <t>머신러닝을 위한 파이썬 한 조각 (파이썬으로 이해하는 인공지능의 시작)</t>
-  </si>
-  <si>
-    <t>바로 쓰는 파이썬 기초 편</t>
-  </si>
-  <si>
-    <t>객체지향 프로그래밍(파이썬)</t>
-  </si>
-  <si>
-    <t>코딩수학 파이썬 1</t>
-  </si>
-  <si>
-    <t>프로그래머를 위한 베이지안 with 파이썬 (파이썬과 PyMC로 구현하며 익히는 베이지안 방법론)</t>
-  </si>
-  <si>
-    <t>파이썬 데이터 전처리 및 탐색 라이브러리</t>
+    <t>파이썬 정복 (파이썬 개발에 필요한 기본 지식을 모두 담은 파이썬 입문서)</t>
+  </si>
+  <si>
+    <t>쉽게 배우는 파이썬 (누구나 쉽게 배울 수 있는 파이썬 입문서)</t>
+  </si>
+  <si>
+    <t>아두이노와 피지컬 컴퓨팅 with 파이썬</t>
+  </si>
+  <si>
+    <t>머신 러닝을 다루는 기술 with 파이썬, 사이킷런 (간단한 수학부터 학습 프로세스, 패턴, 전략까지!)</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 (코딩 초보자를 위한 데이터 중심의)</t>
+  </si>
+  <si>
+    <t>모던 파이썬 입문 (프로그래밍, 시작은 파이썬이다!)</t>
+  </si>
+  <si>
+    <t>파이썬으로 시작하는 코딩 (나만의 게임을 만들어 보자!)</t>
   </si>
   <si>
     <t>파이썬과 주피터 노트북 기반의 SAS Viya</t>
   </si>
   <si>
-    <t>파이썬 (Python,다양한 예제로 배우는 완전 쉬운)</t>
-  </si>
-  <si>
-    <t>파이썬과 대스크를 활용한 고성능 데이터 분석 (대규모 데이터셋 분석, 시각화, 모델링부터 분산 앱 패키징과 배포까지)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 데이터 분석과 응용</t>
-  </si>
-  <si>
-    <t>Flask 기반의 파이썬 웹 프로그래밍</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 머신러닝의 교과서 (그림으로 이해하고 코드로 확인하는 머신러닝, 딥러닝 기초)</t>
-  </si>
-  <si>
-    <t>이토록 쉬운 딥러닝을 위한 기초수학 with 파이썬</t>
-  </si>
-  <si>
-    <t>모두의 엔트리 with 엔트리파이썬 (코딩! 블록으로 이해하고 파이썬 코드로 익힌다)</t>
+    <t>가장 쉬운 파이썬 입문교실</t>
+  </si>
+  <si>
+    <t>파이썬 네트워크 자동화 (가상화 랩 만들기를 통한)</t>
+  </si>
+  <si>
+    <t>파이썬 연습</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 머신러닝 입문 (딥러닝에서 적대적 생성 네트워크까지!)</t>
+  </si>
+  <si>
+    <t>파이썬 코딩의 기초(문제해결을 위한) (문제해결을 위한)</t>
+  </si>
+  <si>
+    <t>나혼자 파이썬</t>
+  </si>
+  <si>
+    <t>한권으로 개발자가 원하던 파이썬 심화 A to Z (실무를 위해 반드시 알아야 할)</t>
+  </si>
+  <si>
+    <t>The Python - 파이썬 프로그래밍</t>
+  </si>
+  <si>
+    <t>Python(파이썬)과 Matplotlib, NumPy, Pandas</t>
+  </si>
+  <si>
+    <t>파이썬으로 데이터 마이닝 시작하기 (데이터의 수집, 로딩, 변환, 클러스터링, 예측까지)</t>
+  </si>
+  <si>
+    <t>코딩 강화 파이썬 (단계별 구성으로 단단하게 배우는)</t>
+  </si>
+  <si>
+    <t>라이노 파이썬</t>
+  </si>
+  <si>
+    <t>스타트 파이썬</t>
+  </si>
+  <si>
+    <t>객체지향 파이썬 프로그래밍 (파이썬 고급 기능으로 강력한 애플리케이션 개발)</t>
+  </si>
+  <si>
+    <t>러닝 파이썬(상) (파이썬에 관한 것, 그 무엇이든!)</t>
+  </si>
+  <si>
+    <t>수학적 모델링 콘텐츠 : 파이썬 1 (파이썬 수학적 모델링 워크북)</t>
+  </si>
+  <si>
+    <t>누구나 파이썬 너도 데이터 가지고 놀 수 있어! 1 (독특하고 재이있는 예제로 파이썬을 시작하고 싶다면)</t>
+  </si>
+  <si>
+    <t>엔지니어를 위한 파이썬 (개발 기초, 필수 라이브러리, 그리고 고속화)</t>
+  </si>
+  <si>
+    <t>신비한 파이썬 프로젝트 (당신의 호기심을 풀어보는)</t>
+  </si>
+  <si>
+    <t>파이썬으로 구현한 인공지능</t>
   </si>
   <si>
     <t>YBM DATA 데이터분석기술평가 파이썬 2급</t>
   </si>
   <si>
-    <t>파이썬으로 움직이는 EV3 로봇</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 금융 분석 (파이썬의 기초부터 금융공학, 수학, 정량 분석, 시스템 구현까지)</t>
-  </si>
-  <si>
-    <t>마인크래프트와 함께 즐겁게 파이썬 (게임으로 재미있게 배우는 코딩과 알고리즘)</t>
-  </si>
-  <si>
-    <t>데이터를 다루며 배우는 파이썬 (Python for Everybody)</t>
-  </si>
-  <si>
-    <t>파이썬으로 텍스트 분석하기 (전략커뮤니케이션을 위한 파이썬 텍스트 마이닝)</t>
-  </si>
-  <si>
-    <t>파이썬 함수 사용 설명서: 내장함수, 클래스, 메서드 편(기초부터 탄탄히) (기초부터 탄탄히)</t>
-  </si>
-  <si>
-    <t>Step by Step 파이썬 비즈니스 통계분석</t>
-  </si>
-  <si>
-    <t>파이썬이 보이는 그림책 (국내 최초 그림으로 배우는 프로그래밍 입문서)</t>
-  </si>
-  <si>
-    <t>파이썬 정복 (파이썬 개발에 필요한 기본 지식을 모두 담은 파이썬 입문서)</t>
-  </si>
-  <si>
-    <t>Hello Coding 한입에 쏙 파이썬 (크리에이터 김왼손의 쉽고 빠른 파이썬 강의)</t>
+    <t>깐깐하게 배우는 파이썬 3 (기본기를 다져주는 단계별 학습법)</t>
+  </si>
+  <si>
+    <t>비즈니스 머신러닝 in 파이썬 (Step by Step)</t>
   </si>
   <si>
     <t>암호 해킹으로 배우는 파이썬의 기초 (암호학과 파이썬을 함께 배우자)</t>
   </si>
   <si>
-    <t>아두이노와 피지컬 컴퓨팅 with 파이썬</t>
-  </si>
-  <si>
-    <t>초보자도 간단히 단숨에 배우는 파이썬 (동영상 강의로 빠르게 시작하는 프로그래밍 입문)</t>
-  </si>
-  <si>
-    <t>모던 파이썬 입문 (프로그래밍, 시작은 파이썬이다!)</t>
-  </si>
-  <si>
-    <t>머신 러닝을 다루는 기술 with 파이썬, 사이킷런 (간단한 수학부터 학습 프로세스, 패턴, 전략까지!)</t>
-  </si>
-  <si>
-    <t>차근차근 파이썬 코딩 실습 (연구활용 대기과학편)</t>
-  </si>
-  <si>
-    <t>한 권으로 배우는 파이썬 기초 &amp; 알고리즘 사고법</t>
-  </si>
-  <si>
-    <t>파이썬</t>
-  </si>
-  <si>
-    <t>파이썬 네트워크 자동화 (가상화 랩 만들기를 통한)</t>
-  </si>
-  <si>
-    <t>창의적 프로그래밍을 위한 파이썬</t>
-  </si>
-  <si>
-    <t>한권으로 파이썬 데이터 사이언스 입문 A to Z</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 응용 텍스트 분석 (언어 인식 데이터 제품 개발을 위한 머신러닝)</t>
-  </si>
-  <si>
-    <t>파이썬 해킹 입문 (공격의 언어 파이썬을 이용한 해킹 연습)</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 교과서</t>
+    <t>파이썬 네트워킹 마스터</t>
+  </si>
+  <si>
+    <t>누구나 파이썬 (기초부터 시작하는 코딩과 데이터 분석)</t>
+  </si>
+  <si>
+    <t>파이썬을 이용한 공학 프로그래밍 (의료용 영상 데이터와 생체 신호 분석을 파이썬으로!)</t>
+  </si>
+  <si>
+    <t>통계를 위한 파이썬 프로그래밍</t>
+  </si>
+  <si>
+    <t>뇌를 자극하는 파이썬 3 (프로그래밍을 배우기에 '가장 재미있는' 언어)</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 영상처리</t>
+  </si>
+  <si>
+    <t>파이썬으로 배우는 초중등 교과서 2 (즐겁게 시작하고 똑똑하게 끝내는 코딩 교과서)</t>
+  </si>
+  <si>
+    <t>파이썬 활용 산업응용수학의 기본</t>
+  </si>
+  <si>
+    <t>씽크 파이썬 (컴퓨터 과학자처럼 생각하며 배우는 파이썬,Think Python)</t>
+  </si>
+  <si>
+    <t>비공대생을 위한 코딩 첫걸음 with 파이썬</t>
   </si>
   <si>
     <t>파이썬을 활용한 스파크 프로그래밍 (빅데이터 분석을 위한 파이썬,스파크 활용법)</t>
   </si>
   <si>
-    <t>가장 쉬운 파이썬 입문교실</t>
-  </si>
-  <si>
-    <t>파이썬 연습</t>
-  </si>
-  <si>
-    <t>고전 컴퓨터 알고리즘 인 파이썬 (피보나치 수열부터 보드게임까지, 알고리즘으로 풀어보는 고전 문제 43선)</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 (코딩 초보자를 위한 데이터 중심의)</t>
-  </si>
-  <si>
-    <t>통계를 위한 파이썬 프로그래밍</t>
-  </si>
-  <si>
-    <t>Python을 이용한 데이터 분석과 시각화</t>
-  </si>
-  <si>
-    <t>파이썬과 수치 해석 (파이썬 수치 해석 레시피)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 머신러닝 입문 (딥러닝에서 적대적 생성 네트워크까지!)</t>
-  </si>
-  <si>
-    <t>파이썬 코딩의 기초(문제해결을 위한) (문제해결을 위한)</t>
-  </si>
-  <si>
-    <t>차근차근 파이썬 코딩 실습 : 기본편</t>
-  </si>
-  <si>
-    <t>씽크 파이썬 (컴퓨터 과학자처럼 생각하며 배우는 파이썬,Think Python)</t>
-  </si>
-  <si>
-    <t>파이썬과 Fraudit을 활용한 회계부정적발</t>
-  </si>
-  <si>
-    <t>쉽게 배우는 파이썬 (누구나 쉽게 배울 수 있는 파이썬 입문서)</t>
-  </si>
-  <si>
-    <t>The Python - 파이썬 프로그래밍</t>
-  </si>
-  <si>
-    <t>Python(파이썬)과 Matplotlib, NumPy, Pandas</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 공학 프로그래밍 (의료용 영상 데이터와 생체 신호 분석을 파이썬으로!)</t>
-  </si>
-  <si>
-    <t>파이썬으로 데이터 마이닝 시작하기 (데이터의 수집, 로딩, 변환, 클러스터링, 예측까지)</t>
-  </si>
-  <si>
-    <t>한권으로 개발자가 원하던 파이썬 심화 A to Z (실무를 위해 반드시 알아야 할)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 초중등 교과서 2 (즐겁게 시작하고 똑똑하게 끝내는 코딩 교과서)</t>
-  </si>
-  <si>
-    <t>스타트 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬 마이크로서비스 (모범 사례로 알아보는 파이썬 마이크로서비스 개발, 테스트,배포, 확장까지)</t>
-  </si>
-  <si>
-    <t>비즈니스 머신러닝 in 파이썬 (Step by Step)</t>
-  </si>
-  <si>
-    <t>퍼즐로 배우는 알고리즘 with 파이썬 (21가지 퍼즐을 풀면서 배우는 알고리즘과 프로그래밍의 원리)</t>
-  </si>
-  <si>
-    <t>나혼자 파이썬</t>
-  </si>
-  <si>
-    <t>깐깐하게 배우는 파이썬 3 (기본기를 다져주는 단계별 학습법)</t>
-  </si>
-  <si>
-    <t>러닝 파이썬(상) (파이썬에 관한 것, 그 무엇이든!)</t>
-  </si>
-  <si>
-    <t>컴퓨터 사이언스 부트캠프 with 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬으로 풀어보는 회귀분석 (단순선형회귀분석부터 고급 회귀분석까지)</t>
-  </si>
-  <si>
-    <t>코딩 강화 파이썬 (단계별 구성으로 단단하게 배우는)</t>
-  </si>
-  <si>
-    <t>파이썬으로 시작하는 코딩 (나만의 게임을 만들어 보자!)</t>
-  </si>
-  <si>
-    <t>누구나 파이썬 너도 데이터 가지고 놀 수 있어! 1 (독특하고 재이있는 예제로 파이썬을 시작하고 싶다면)</t>
-  </si>
-  <si>
-    <t>파이썬 성능 높이기 (프로그램 병목 찾기부터 파이썬 구현 선택, 병렬 시스템 확장까지)</t>
-  </si>
-  <si>
-    <t>수학으로 배우는 파이썬 (초등 수학으로 재밌고 쉽게 파이썬 배우기)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 컴퓨터 과학 입문 (이공계를 위한 프로그래밍, 자료구조, 알고리즘)</t>
-  </si>
-  <si>
-    <t>파이썬으로 배우는 영상처리</t>
-  </si>
-  <si>
-    <t>수학적 모델링 콘텐츠 : 파이썬 1 (파이썬 수학적 모델링 워크북)</t>
-  </si>
-  <si>
-    <t>파이썬 Jupyter Notebook 실전 입문</t>
-  </si>
-  <si>
-    <t>파이썬으로 풀어보는 수학 (코드로 통계, 확률, 미적분과 같은 다양한 수학 탐험하기)</t>
-  </si>
-  <si>
-    <t>객체지향 파이썬 프로그래밍 (파이썬 고급 기능으로 강력한 애플리케이션 개발)</t>
-  </si>
-  <si>
-    <t>파이썬을 활용한 크롤러 개발과 스크레이핑 입문 (크롤러 설계와 개발부터 수집 데이터 분석과 운용까지)</t>
-  </si>
-  <si>
-    <t>자연어 처리 쿡북 with 파이썬 (파이썬으로 NLP를 구현하는 60여 가지 레시피)</t>
-  </si>
-  <si>
-    <t>파이썬을 이용한 빅데이터 수집, 분석과 시각화 (페이스북, 트위터, 네이버, 공공, 일반 웹 데이터 기반)</t>
-  </si>
-  <si>
-    <t>라이노 파이썬</t>
-  </si>
-  <si>
-    <t>파이썬으로 구현한 인공지능</t>
-  </si>
-  <si>
-    <t>엔지니어를 위한 파이썬 (개발 기초, 필수 라이브러리, 그리고 고속화)</t>
-  </si>
-  <si>
-    <t>10대를 위한 파이썬 교과서 (컴퓨팅 사고력과 알고리즘 배우기)</t>
-  </si>
-  <si>
-    <t>뇌를 자극하는 파이썬 3 (프로그래밍을 배우기에 '가장 재미있는' 언어)</t>
-  </si>
-  <si>
     <t>파이썬과 함께 하는 수학 어드벤처 (파이썬과 프로세싱으로 수학 개념 이해하기)</t>
   </si>
   <si>
-    <t>파이썬으로 만드는 암호화폐 자동 거래 시스템 (24시간 운영되는 나만의 스마트 트레이딩 시스템 만들기)</t>
-  </si>
-  <si>
     <t>나동빈</t>
   </si>
   <si>
@@ -928,94 +928,112 @@
     <t>박상길</t>
   </si>
   <si>
+    <t>박준성</t>
+  </si>
+  <si>
+    <t>권철민</t>
+  </si>
+  <si>
+    <t>유대표|조대표</t>
+  </si>
+  <si>
     <t>송석리|서승희</t>
   </si>
   <si>
+    <t>정동균</t>
+  </si>
+  <si>
     <t>김황후</t>
   </si>
   <si>
-    <t>권철민</t>
-  </si>
-  <si>
-    <t>박준성</t>
-  </si>
-  <si>
-    <t>유대표|조대표</t>
+    <t>김창현</t>
+  </si>
+  <si>
+    <t>장철원</t>
   </si>
   <si>
     <t>세바스찬 라시카|바히드 미자리리</t>
   </si>
   <si>
+    <t>우재남</t>
+  </si>
+  <si>
+    <t>문현일</t>
+  </si>
+  <si>
     <t>이숙번|이고잉</t>
   </si>
   <si>
-    <t>정동균</t>
-  </si>
-  <si>
-    <t>김창현</t>
-  </si>
-  <si>
     <t>이승찬</t>
   </si>
   <si>
-    <t>장철원</t>
-  </si>
-  <si>
-    <t>문현일</t>
+    <t>엘리스 코딩</t>
   </si>
   <si>
     <t>송석리|이현아</t>
   </si>
   <si>
+    <t>이성용|김태곤</t>
+  </si>
+  <si>
     <t>브렛 슬라킨</t>
   </si>
   <si>
-    <t>엘리스 코딩</t>
-  </si>
-  <si>
     <t>이영호</t>
   </si>
   <si>
-    <t>이성용|김태곤</t>
+    <t>안지혜</t>
   </si>
   <si>
     <t>루벤 M. 러너</t>
   </si>
   <si>
-    <t>안지혜</t>
+    <t>서민우</t>
+  </si>
+  <si>
+    <t>오승환</t>
+  </si>
+  <si>
+    <t>시모야마 데루마사|미키 다카유키|이토 준지</t>
   </si>
   <si>
     <t>알베르토 아르타산체스|프라틱 조시</t>
   </si>
   <si>
+    <t>최은석</t>
+  </si>
+  <si>
+    <t>웨스 맥키니</t>
+  </si>
+  <si>
+    <t>김효실</t>
+  </si>
+  <si>
+    <t>한선관|김태령</t>
+  </si>
+  <si>
     <t>이경택|방성수|안상준</t>
   </si>
   <si>
-    <t>김효실</t>
-  </si>
-  <si>
-    <t>서민우</t>
-  </si>
-  <si>
-    <t>최은석</t>
-  </si>
-  <si>
-    <t>오승환</t>
+    <t>해리 퍼시벌|밥 그레고리</t>
+  </si>
+  <si>
+    <t>천인국|박동규|강영민</t>
+  </si>
+  <si>
+    <t>최성철</t>
   </si>
   <si>
     <t>마이클 워커</t>
   </si>
   <si>
-    <t>웨스 맥키니</t>
-  </si>
-  <si>
-    <t>시모야마 데루마사|미키 다카유키|이토 준지</t>
+    <t>안드레아스 뮐러|세라 가이도</t>
   </si>
   <si>
     <t>다카하시 마나</t>
   </si>
   <si>
-    <t>해리 퍼시벌|밥 그레고리</t>
+    <t>부르크하르트 메이어</t>
   </si>
   <si>
     <t>퀀티랩</t>
@@ -1024,681 +1042,663 @@
     <t>남재윤</t>
   </si>
   <si>
+    <t>천인국</t>
+  </si>
+  <si>
+    <t>윤기태</t>
+  </si>
+  <si>
+    <t>조준우</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>이형석|장남수|전상환|정상욱</t>
+  </si>
+  <si>
+    <t>고병철</t>
+  </si>
+  <si>
+    <t>미샤 고렐릭|이안 오스발트</t>
+  </si>
+  <si>
+    <t>이노우에 켄이치</t>
+  </si>
+  <si>
+    <t>히로세 츠요시</t>
+  </si>
+  <si>
+    <t>Ivan Vasilev</t>
+  </si>
+  <si>
+    <t>Matthew Lamons</t>
+  </si>
+  <si>
+    <t>곽승주</t>
+  </si>
+  <si>
+    <t>시모야마 테루마사|마쯔다 유마|미키 타카유키</t>
+  </si>
+  <si>
+    <t>천인국|정영민|최자영</t>
+  </si>
+  <si>
+    <t>타니아이 히로키</t>
+  </si>
+  <si>
+    <t>빌 루바노빅</t>
+  </si>
+  <si>
+    <t>오승환|이경록|김태헌|홍재권</t>
+  </si>
+  <si>
+    <t>장쥔홍</t>
+  </si>
+  <si>
+    <t>이브스 힐피쉬</t>
+  </si>
+  <si>
+    <t>김명호</t>
+  </si>
+  <si>
+    <t>김완섭</t>
+  </si>
+  <si>
+    <t>윤대희</t>
+  </si>
+  <si>
+    <t>공재웅</t>
+  </si>
+  <si>
+    <t>채진석</t>
+  </si>
+  <si>
+    <t>브라이언 오버랜드|존 베넷</t>
+  </si>
+  <si>
+    <t>황재호|황예린</t>
+  </si>
+  <si>
+    <t>오일석|이진석</t>
+  </si>
+  <si>
+    <t>다나카 겐이치로</t>
+  </si>
+  <si>
+    <t>박동규|강영민</t>
+  </si>
+  <si>
+    <t>노아 기프트|케네디 베어먼|알프레도 데자|그릭 게오르규</t>
+  </si>
+  <si>
+    <t>윤성우</t>
+  </si>
+  <si>
+    <t>카네히로 카즈미</t>
+  </si>
+  <si>
+    <t>마리아노 아나야</t>
+  </si>
+  <si>
+    <t>니콜라 레이시</t>
+  </si>
+  <si>
     <t>김상민</t>
   </si>
   <si>
-    <t>윤기태</t>
-  </si>
-  <si>
-    <t>이노우에 켄이치</t>
-  </si>
-  <si>
-    <t>이지영</t>
-  </si>
-  <si>
-    <t>천인국|박동규|강영민</t>
-  </si>
-  <si>
-    <t>안드레아스 뮐러|세라 가이도</t>
-  </si>
-  <si>
-    <t>부르크하르트 메이어</t>
-  </si>
-  <si>
-    <t>미샤 고렐릭|이안 오스발트</t>
-  </si>
-  <si>
-    <t>채진석</t>
-  </si>
-  <si>
-    <t>시모야마 테루마사|마쯔다 유마|미키 타카유키</t>
-  </si>
-  <si>
-    <t>히로세 츠요시</t>
-  </si>
-  <si>
-    <t>곽승주</t>
-  </si>
-  <si>
-    <t>윤대희</t>
-  </si>
-  <si>
-    <t>공재웅</t>
-  </si>
-  <si>
-    <t>천인국</t>
-  </si>
-  <si>
-    <t>오일석|이진석</t>
-  </si>
-  <si>
-    <t>노아 기프트|케네디 베어먼|알프레도 데자|그릭 게오르규</t>
-  </si>
-  <si>
-    <t>이형석|장남수|전상환|정상욱</t>
-  </si>
-  <si>
-    <t>오승환|이경록|김태헌|홍재권</t>
+    <t>안정국</t>
+  </si>
+  <si>
+    <t>비현코</t>
+  </si>
+  <si>
+    <t>조대표</t>
   </si>
   <si>
     <t>김범준</t>
   </si>
   <si>
-    <t>빌 루바노빅</t>
-  </si>
-  <si>
-    <t>조준우</t>
-  </si>
-  <si>
-    <t>타니아이 히로키</t>
-  </si>
-  <si>
-    <t>천인국|정영민|최자영</t>
-  </si>
-  <si>
-    <t>장쥔홍</t>
-  </si>
-  <si>
-    <t>이브스 힐피쉬</t>
+    <t>김용재</t>
+  </si>
+  <si>
+    <t>박재현</t>
+  </si>
+  <si>
+    <t>안드레아 론자</t>
+  </si>
+  <si>
+    <t>김석훈</t>
+  </si>
+  <si>
+    <t>라이언 미첼</t>
+  </si>
+  <si>
+    <t>황재호</t>
+  </si>
+  <si>
+    <t>에릭 르윈슨</t>
+  </si>
+  <si>
+    <t>켄 유엔스-클락</t>
+  </si>
+  <si>
+    <t>임성국</t>
+  </si>
+  <si>
+    <t>송동근</t>
+  </si>
+  <si>
+    <t>한주현</t>
+  </si>
+  <si>
+    <t>민형기</t>
+  </si>
+  <si>
+    <t>이고잉|장용하</t>
+  </si>
+  <si>
+    <t>이병준</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>송은우</t>
+  </si>
+  <si>
+    <t>쥘리앵 당주</t>
+  </si>
+  <si>
+    <t>유성열</t>
+  </si>
+  <si>
+    <t>서대호</t>
+  </si>
+  <si>
+    <t>박정호|안해민|박찬솔</t>
+  </si>
+  <si>
+    <t>알 스웨이가트</t>
+  </si>
+  <si>
+    <t>최영규|천인국</t>
+  </si>
+  <si>
+    <t>문용준|문성혁</t>
+  </si>
+  <si>
+    <t>스야마 레이</t>
   </si>
   <si>
     <t>모리 요시나오</t>
   </si>
   <si>
+    <t>이시이 모루나|에사키 노리히데</t>
+  </si>
+  <si>
+    <t>케일럽 해팅</t>
+  </si>
+  <si>
+    <t>이웅원|양혁렬|김건우|이영무|이의령</t>
+  </si>
+  <si>
+    <t>이상철</t>
+  </si>
+  <si>
+    <t>Sridhar Alla|Suman Kalyan Adari</t>
+  </si>
+  <si>
+    <t>제이크 밴더플래스</t>
+  </si>
+  <si>
+    <t>윤덕호</t>
+  </si>
+  <si>
+    <t>배준호|정웅열|정종광|전현석</t>
+  </si>
+  <si>
+    <t>폴 크릭커드|에릭 반 리스|사일러스 톰스</t>
+  </si>
+  <si>
+    <t>박연오</t>
+  </si>
+  <si>
+    <t>미아 스타인</t>
+  </si>
+  <si>
+    <t>홍성준|홍성수</t>
+  </si>
+  <si>
+    <t>황본현우|정지현</t>
+  </si>
+  <si>
+    <t>강봉주</t>
+  </si>
+  <si>
+    <t>김형수</t>
+  </si>
+  <si>
+    <t>서진수|손기동</t>
+  </si>
+  <si>
+    <t>이시하라 쇼타로|무라타 히데키</t>
+  </si>
+  <si>
+    <t>바바 신야</t>
+  </si>
+  <si>
+    <t>수닐 카필</t>
+  </si>
+  <si>
+    <t>양태환</t>
+  </si>
+  <si>
+    <t>송오영</t>
+  </si>
+  <si>
+    <t>홉슨 레인|하네스 막스 하프케|콜 하워드</t>
+  </si>
+  <si>
+    <t>쿠지라 히코우즈쿠에</t>
+  </si>
+  <si>
+    <t>박준규</t>
+  </si>
+  <si>
+    <t>클린턴 브라운리</t>
+  </si>
+  <si>
+    <t>Evan|조대연|김보경|정필원|최준영</t>
+  </si>
+  <si>
+    <t>김용환</t>
+  </si>
+  <si>
+    <t>카오리 타니지리</t>
+  </si>
+  <si>
+    <t>장삼용</t>
+  </si>
+  <si>
+    <t>김진일|윤장혁</t>
+  </si>
+  <si>
+    <t>에릭 마테스</t>
+  </si>
+  <si>
+    <t>강지영</t>
+  </si>
+  <si>
+    <t>우재남|최민아</t>
+  </si>
+  <si>
+    <t>정준우|김민기</t>
+  </si>
+  <si>
+    <t>최영규</t>
+  </si>
+  <si>
+    <t>박진수</t>
+  </si>
+  <si>
+    <t>체탄 기리다</t>
+  </si>
+  <si>
+    <t>류권규|이남주</t>
+  </si>
+  <si>
+    <t>박유성</t>
+  </si>
+  <si>
+    <t>크레이그 리처드슨</t>
+  </si>
+  <si>
+    <t>문상국|정원교|장선연|양효식|아이씨뱅큐(주)</t>
+  </si>
+  <si>
+    <t>아카이시 마사노리</t>
+  </si>
+  <si>
+    <t>Sumit Raj</t>
+  </si>
+  <si>
+    <t>한컴에듀케이션 알고리즘연구소</t>
+  </si>
+  <si>
+    <t>아난드 발라찬드라 필라이</t>
+  </si>
+  <si>
+    <t>강윤희|남성현|박용범</t>
+  </si>
+  <si>
+    <t>이토 마코토</t>
+  </si>
+  <si>
+    <t>허진경</t>
+  </si>
+  <si>
+    <t>서열규|전희성</t>
+  </si>
+  <si>
+    <t>목원대학교 스톡스대학 SW교양학부|조도은|고유정|구진희|연용호|최정희</t>
+  </si>
+  <si>
+    <t>드미트리 지노비에프</t>
+  </si>
+  <si>
+    <t>테리엇</t>
+  </si>
+  <si>
+    <t>데인 힐라드</t>
+  </si>
+  <si>
+    <t>유영환|김경민|김민호|이태훈|장종칠</t>
+  </si>
+  <si>
+    <t>박경원</t>
+  </si>
+  <si>
+    <t>김성백|김철민|박찬정</t>
+  </si>
+  <si>
+    <t>윤태일|이수안</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>이시카와 아키히코</t>
+  </si>
+  <si>
+    <t>염기원</t>
+  </si>
+  <si>
+    <t>홍성인</t>
+  </si>
+  <si>
+    <t>디파니안 사르카르|러그허브 발리|타모그나 고시</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>양숙희|오경선|장은실</t>
+  </si>
+  <si>
+    <t>설진욱</t>
+  </si>
+  <si>
     <t>루시아누 하말류</t>
   </si>
   <si>
-    <t>황재호|황예린</t>
-  </si>
-  <si>
-    <t>송동근</t>
-  </si>
-  <si>
-    <t>우재남</t>
-  </si>
-  <si>
-    <t>조대표</t>
-  </si>
-  <si>
-    <t>박재현</t>
-  </si>
-  <si>
-    <t>브라이언 오버랜드|존 베넷</t>
-  </si>
-  <si>
-    <t>비현코</t>
-  </si>
-  <si>
-    <t>카네히로 카즈미</t>
-  </si>
-  <si>
-    <t>황재호</t>
-  </si>
-  <si>
-    <t>최성철</t>
-  </si>
-  <si>
-    <t>윤성우</t>
-  </si>
-  <si>
-    <t>라이언 미첼</t>
-  </si>
-  <si>
-    <t>니콜라 레이시</t>
-  </si>
-  <si>
-    <t>다나카 겐이치로</t>
-  </si>
-  <si>
-    <t>김석훈</t>
-  </si>
-  <si>
-    <t>안드레아 론자</t>
-  </si>
-  <si>
-    <t>정준우|김민기</t>
-  </si>
-  <si>
-    <t>마리아노 아나야</t>
-  </si>
-  <si>
-    <t>김명호</t>
-  </si>
-  <si>
-    <t>에릭 르윈슨</t>
-  </si>
-  <si>
-    <t>김완섭</t>
-  </si>
-  <si>
-    <t>김용재</t>
-  </si>
-  <si>
-    <t>유성열</t>
-  </si>
-  <si>
-    <t>서대호</t>
-  </si>
-  <si>
-    <t>켄 유엔스-클락</t>
-  </si>
-  <si>
-    <t>황본현우|정지현</t>
-  </si>
-  <si>
-    <t>한주현</t>
-  </si>
-  <si>
-    <t>안정국</t>
-  </si>
-  <si>
-    <t>이병준</t>
-  </si>
-  <si>
-    <t>민형기</t>
-  </si>
-  <si>
-    <t>문용준|문성혁</t>
-  </si>
-  <si>
-    <t>이고잉|장용하</t>
-  </si>
-  <si>
-    <t>알 스웨이가트</t>
-  </si>
-  <si>
-    <t>쿠지라 히코우즈쿠에</t>
-  </si>
-  <si>
-    <t>Sridhar Alla|Suman Kalyan Adari</t>
-  </si>
-  <si>
-    <t>바바 신야</t>
-  </si>
-  <si>
-    <t>송은우</t>
+    <t>이강성</t>
+  </si>
+  <si>
+    <t>티아구 안타오</t>
+  </si>
+  <si>
+    <t>김지연</t>
+  </si>
+  <si>
+    <t>황준|연승욱|박광현</t>
+  </si>
+  <si>
+    <t>조성문|정영훈</t>
+  </si>
+  <si>
+    <t>김상권|김현동|곽수빈|황영진|김준석</t>
+  </si>
+  <si>
+    <t>벤자민 벵포트|레베카 빌브로|토니 오제다</t>
+  </si>
+  <si>
+    <t>배프</t>
+  </si>
+  <si>
+    <t>시바타 보요</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>이지선</t>
+  </si>
+  <si>
+    <t>김슬기|김성훈|곽혜미</t>
+  </si>
+  <si>
+    <t>김문권</t>
+  </si>
+  <si>
+    <t>이현종|박재일</t>
+  </si>
+  <si>
+    <t>최윤철|임순범</t>
+  </si>
+  <si>
+    <t>강환수|신용현</t>
+  </si>
+  <si>
+    <t>전현희|강희숙|주희정|최민희</t>
+  </si>
+  <si>
+    <t>성백균</t>
+  </si>
+  <si>
+    <t>박병기</t>
+  </si>
+  <si>
+    <t>서민우|박준원</t>
+  </si>
+  <si>
+    <t>천상훈</t>
+  </si>
+  <si>
+    <t>황일규</t>
+  </si>
+  <si>
+    <t>류지훈|박훈영|시호연|심성보|윤현석</t>
+  </si>
+  <si>
+    <t>로버트 요한슨</t>
+  </si>
+  <si>
+    <t>박성호</t>
+  </si>
+  <si>
+    <t>크리스 알본</t>
+  </si>
+  <si>
+    <t>김왼손|김태간</t>
+  </si>
+  <si>
+    <t>이성건|강현철</t>
+  </si>
+  <si>
+    <t>이정주</t>
+  </si>
+  <si>
+    <t>제시 대니얼</t>
+  </si>
+  <si>
+    <t>이브 힐피시</t>
+  </si>
+  <si>
+    <t>최일선</t>
+  </si>
+  <si>
+    <t>이지호</t>
+  </si>
+  <si>
+    <t>줄리 스웨이</t>
+  </si>
+  <si>
+    <t>조인석</t>
+  </si>
+  <si>
+    <t>캐머런 데이비슨 필론</t>
   </si>
   <si>
     <t>이세우</t>
   </si>
   <si>
-    <t>장삼용</t>
-  </si>
-  <si>
-    <t>박동규|강영민</t>
-  </si>
-  <si>
-    <t>Sumit Raj</t>
-  </si>
-  <si>
-    <t>최영규|천인국</t>
-  </si>
-  <si>
-    <t>김형수</t>
-  </si>
-  <si>
-    <t>한선관|김태령</t>
-  </si>
-  <si>
-    <t>이웅원|양혁렬|김건우|이영무|이의령</t>
-  </si>
-  <si>
-    <t>쥘리앵 당주</t>
-  </si>
-  <si>
-    <t>강봉주</t>
-  </si>
-  <si>
-    <t>이원상</t>
-  </si>
-  <si>
-    <t>임성국</t>
-  </si>
-  <si>
-    <t>홉슨 레인|하네스 막스 하프케|콜 하워드</t>
-  </si>
-  <si>
-    <t>홍성준|홍성수</t>
-  </si>
-  <si>
-    <t>김용환</t>
-  </si>
-  <si>
-    <t>클린턴 브라운리</t>
-  </si>
-  <si>
-    <t>강지영</t>
-  </si>
-  <si>
-    <t>문상국|정원교|장선연|양효식|아이씨뱅큐(주)</t>
-  </si>
-  <si>
-    <t>우재남|최민아</t>
-  </si>
-  <si>
-    <t>정준우</t>
-  </si>
-  <si>
-    <t>최영규</t>
-  </si>
-  <si>
-    <t>박정호|안해민|박찬솔</t>
-  </si>
-  <si>
-    <t>케일럽 해팅</t>
-  </si>
-  <si>
-    <t>Evan|조대연|김보경|정필원|최준영</t>
-  </si>
-  <si>
-    <t>양태환</t>
-  </si>
-  <si>
-    <t>아카이시 마사노리</t>
-  </si>
-  <si>
-    <t>이시이 모루나|에사키 노리히데</t>
-  </si>
-  <si>
-    <t>폴 크릭커드|에릭 반 리스|사일러스 톰스</t>
-  </si>
-  <si>
-    <t>윤덕호</t>
-  </si>
-  <si>
-    <t>서열규|전희성</t>
-  </si>
-  <si>
-    <t>김진일|윤장혁</t>
-  </si>
-  <si>
-    <t>박연오</t>
-  </si>
-  <si>
-    <t>제이크 밴더플래스</t>
-  </si>
-  <si>
-    <t>서진수|손기동</t>
-  </si>
-  <si>
-    <t>배준호|정웅열|정종광|전현석</t>
-  </si>
-  <si>
-    <t>이시하라 쇼타로|무라타 히데키</t>
-  </si>
-  <si>
-    <t>강윤희|남성현|박용범</t>
-  </si>
-  <si>
-    <t>최윤철|임순범</t>
-  </si>
-  <si>
-    <t>미아 스타인</t>
-  </si>
-  <si>
-    <t>테리엇</t>
-  </si>
-  <si>
-    <t>황준|연승욱|박광현</t>
-  </si>
-  <si>
-    <t>수닐 카필</t>
-  </si>
-  <si>
-    <t>송오영</t>
-  </si>
-  <si>
-    <t>체탄 기리다</t>
-  </si>
-  <si>
-    <t>아난드 발라찬드라 필라이</t>
-  </si>
-  <si>
-    <t>김성백|김철민|박찬정</t>
-  </si>
-  <si>
-    <t>박유성</t>
-  </si>
-  <si>
-    <t>에릭 마테스</t>
-  </si>
-  <si>
-    <t>목원대학교 스톡스대학 SW교양학부|조도은|고유정|구진희|연용호|최정희</t>
-  </si>
-  <si>
-    <t>스야마 레이</t>
-  </si>
-  <si>
-    <t>양숙희|오경선|장은실</t>
-  </si>
-  <si>
-    <t>박준규</t>
-  </si>
-  <si>
-    <t>허진경</t>
-  </si>
-  <si>
-    <t>이현종</t>
-  </si>
-  <si>
-    <t>이현종|박재일</t>
-  </si>
-  <si>
-    <t>줄리 스웨이</t>
-  </si>
-  <si>
-    <t>이강성</t>
-  </si>
-  <si>
-    <t>염기원</t>
-  </si>
-  <si>
-    <t>데인 힐라드</t>
-  </si>
-  <si>
-    <t>카오리 타니지리</t>
-  </si>
-  <si>
-    <t>이시카와 아키히코</t>
-  </si>
-  <si>
-    <t>배프</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>강환수|신용현</t>
-  </si>
-  <si>
-    <t>박경원</t>
-  </si>
-  <si>
-    <t>크레이그 리처드슨</t>
-  </si>
-  <si>
-    <t>전현희|강희숙|주희정|최민희</t>
+    <t>데이비드 코펙</t>
+  </si>
+  <si>
+    <t>SRINI DEVADAS</t>
+  </si>
+  <si>
+    <t>찰스 세브란스</t>
+  </si>
+  <si>
+    <t>마스이 도시카츠</t>
+  </si>
+  <si>
+    <t>김정욱</t>
+  </si>
+  <si>
+    <t>이케우치 타카히로|카타야나기 노부코|이와오 에마 하루카|@driller</t>
+  </si>
+  <si>
+    <t>다나카 카즈나리</t>
+  </si>
+  <si>
+    <t>김영천</t>
+  </si>
+  <si>
+    <t>크리슈나 바브사|나레쉬 쿠마르|프라탑 단게티</t>
+  </si>
+  <si>
+    <t>ANK Co. Ltd</t>
   </si>
   <si>
     <t>김상근</t>
   </si>
   <si>
-    <t>시바타 보요</t>
-  </si>
-  <si>
-    <t>김지연</t>
-  </si>
-  <si>
-    <t>설진욱</t>
-  </si>
-  <si>
-    <t>크리스 알본</t>
-  </si>
-  <si>
-    <t>한컴에듀케이션 알고리즘연구소</t>
-  </si>
-  <si>
-    <t>천상훈</t>
-  </si>
-  <si>
-    <t>드미트리 지노비에프</t>
-  </si>
-  <si>
-    <t>티아구 안타오</t>
-  </si>
-  <si>
-    <t>유영환|김경민|김민호|이태훈|장종칠</t>
-  </si>
-  <si>
-    <t>서민우|박준원</t>
+    <t>권판검</t>
+  </si>
+  <si>
+    <t>한혁수</t>
+  </si>
+  <si>
+    <t>류지훈</t>
+  </si>
+  <si>
+    <t>제니퍼 캠벨|폴 그라이즈|제이슨 만토요</t>
+  </si>
+  <si>
+    <t>김계수</t>
   </si>
   <si>
     <t>김현정|유상현</t>
   </si>
   <si>
-    <t>김정욱</t>
-  </si>
-  <si>
-    <t>디파니안 사르카르|러그허브 발리|타모그나 고시</t>
-  </si>
-  <si>
-    <t>이정주</t>
-  </si>
-  <si>
-    <t>김문권</t>
-  </si>
-  <si>
-    <t>류권규|이남주</t>
-  </si>
-  <si>
-    <t>이지선</t>
-  </si>
-  <si>
-    <t>홍성인</t>
-  </si>
-  <si>
-    <t>박성호</t>
-  </si>
-  <si>
-    <t>박진수</t>
-  </si>
-  <si>
-    <t>성백균</t>
-  </si>
-  <si>
-    <t>김상권|김현동|곽수빈|황영진|김준석</t>
-  </si>
-  <si>
-    <t>캐머런 데이비슨 필론</t>
-  </si>
-  <si>
-    <t>박병기</t>
-  </si>
-  <si>
-    <t>제시 대니얼</t>
-  </si>
-  <si>
-    <t>이성건|강현철</t>
-  </si>
-  <si>
-    <t>이지호</t>
-  </si>
-  <si>
-    <t>이토 마코토</t>
-  </si>
-  <si>
-    <t>마스이 도시카츠</t>
-  </si>
-  <si>
-    <t>김슬기|김성훈|곽혜미</t>
+    <t>김상형</t>
+  </si>
+  <si>
+    <t>김은옥</t>
+  </si>
+  <si>
+    <t>이원규|김자미|장윤재</t>
+  </si>
+  <si>
+    <t>마크 페너</t>
+  </si>
+  <si>
+    <t>길준민|박지수</t>
+  </si>
+  <si>
+    <t>아나 벨</t>
+  </si>
+  <si>
+    <t>브라이언 칼링|말리 아데어</t>
+  </si>
+  <si>
+    <t>오오사와 후미타카</t>
+  </si>
+  <si>
+    <t>최병철</t>
+  </si>
+  <si>
+    <t>김기용</t>
+  </si>
+  <si>
+    <t>오제키 마사유키</t>
+  </si>
+  <si>
+    <t>조연상</t>
+  </si>
+  <si>
+    <t>이창현</t>
+  </si>
+  <si>
+    <t>양원영</t>
+  </si>
+  <si>
+    <t>나단 그리넬치</t>
+  </si>
+  <si>
+    <t>이규호</t>
+  </si>
+  <si>
+    <t>김성욱</t>
+  </si>
+  <si>
+    <t>스티븐 로트</t>
+  </si>
+  <si>
+    <t>마크 루츠</t>
+  </si>
+  <si>
+    <t>김준석|김상권|이채영|최용호|곽수빈|황영진</t>
+  </si>
+  <si>
+    <t>나카쿠키 켄지</t>
+  </si>
+  <si>
+    <t>Lee Vaughan</t>
+  </si>
+  <si>
+    <t>박태희</t>
   </si>
   <si>
     <t>김승욱</t>
   </si>
   <si>
-    <t>황일규</t>
-  </si>
-  <si>
-    <t>이브 힐피시</t>
-  </si>
-  <si>
-    <t>최일선</t>
-  </si>
-  <si>
-    <t>찰스 세브란스</t>
-  </si>
-  <si>
-    <t>윤태일|이수안</t>
-  </si>
-  <si>
-    <t>권판검</t>
-  </si>
-  <si>
-    <t>ANK Co. Ltd</t>
-  </si>
-  <si>
-    <t>김상형</t>
-  </si>
-  <si>
-    <t>김왼손|김태간</t>
-  </si>
-  <si>
-    <t>이원규|김자미|장윤재</t>
-  </si>
-  <si>
-    <t>조인석</t>
-  </si>
-  <si>
-    <t>아나 벨</t>
-  </si>
-  <si>
-    <t>마크 페너</t>
-  </si>
-  <si>
-    <t>류지훈|박훈영|시호연|심성보|윤현석</t>
-  </si>
-  <si>
-    <t>아리스티데스 보우라스|루키아 아이나로지두</t>
-  </si>
-  <si>
-    <t>김영천</t>
-  </si>
-  <si>
-    <t>최병철</t>
-  </si>
-  <si>
-    <t>한혁수</t>
-  </si>
-  <si>
-    <t>벤자민 벵포트|레베카 빌브로|토니 오제다</t>
-  </si>
-  <si>
-    <t>조성문|정영훈</t>
-  </si>
-  <si>
-    <t>제니퍼 캠벨|폴 그라이즈|제이슨 만토요</t>
+    <t>제드 쇼</t>
+  </si>
+  <si>
+    <t>에릭 추</t>
+  </si>
+  <si>
+    <t>전익진</t>
+  </si>
+  <si>
+    <t>손재범|정의성|이호영|임형규|박영상</t>
+  </si>
+  <si>
+    <t>김진성</t>
+  </si>
+  <si>
+    <t>박상현</t>
+  </si>
+  <si>
+    <t>Sandipan Dey</t>
+  </si>
+  <si>
+    <t>김준석|김상권|이채영|정다래|최용호</t>
+  </si>
+  <si>
+    <t>앨런 다우니</t>
+  </si>
+  <si>
+    <t>김일민|홍희경|유상미|노은희</t>
   </si>
   <si>
     <t>제프리 에이븐</t>
   </si>
   <si>
-    <t>오오사와 후미타카</t>
-  </si>
-  <si>
-    <t>김기용</t>
-  </si>
-  <si>
-    <t>데이비드 코펙</t>
-  </si>
-  <si>
-    <t>길준민|박지수</t>
-  </si>
-  <si>
-    <t>김진성</t>
-  </si>
-  <si>
-    <t>김계수</t>
-  </si>
-  <si>
-    <t>로버트 요한슨</t>
-  </si>
-  <si>
-    <t>오제키 마사유키</t>
-  </si>
-  <si>
-    <t>조연상</t>
-  </si>
-  <si>
-    <t>류지훈</t>
-  </si>
-  <si>
-    <t>앨런 다우니</t>
-  </si>
-  <si>
-    <t>김은옥</t>
-  </si>
-  <si>
-    <t>양원영</t>
-  </si>
-  <si>
-    <t>손재범|정의성|이호영|임형규|박영상</t>
-  </si>
-  <si>
-    <t>나단 그리넬치</t>
-  </si>
-  <si>
-    <t>타렉 지아드</t>
-  </si>
-  <si>
-    <t>SRINI DEVADAS</t>
-  </si>
-  <si>
-    <t>이창현</t>
-  </si>
-  <si>
-    <t>제드 쇼</t>
-  </si>
-  <si>
-    <t>마크 루츠</t>
-  </si>
-  <si>
-    <t>루카 마싸론|알베르토 보스체티</t>
-  </si>
-  <si>
-    <t>이규호</t>
-  </si>
-  <si>
-    <t>브라이언 칼링|말리 아데어</t>
-  </si>
-  <si>
-    <t>가브리엘레 라나로</t>
-  </si>
-  <si>
-    <t>다나카 카즈나리</t>
-  </si>
-  <si>
-    <t>로버트 세지윅|케빈 웨인|로버트 돈데로</t>
-  </si>
-  <si>
-    <t>Sandipan Dey</t>
-  </si>
-  <si>
-    <t>김준석|김상권|이채영|최용호|곽수빈|황영진</t>
-  </si>
-  <si>
-    <t>이케우치 타카히로|카타야나기 노부코|이와오 에마 하루카|@driller</t>
-  </si>
-  <si>
-    <t>아미트 사하</t>
-  </si>
-  <si>
-    <t>스티븐 로트</t>
-  </si>
-  <si>
-    <t>카토 카츠야|요코야마 유우키</t>
-  </si>
-  <si>
-    <t>크리슈나 바브사|나레쉬 쿠마르|프라탑 단게티</t>
-  </si>
-  <si>
-    <t>이원하</t>
-  </si>
-  <si>
-    <t>김성욱</t>
-  </si>
-  <si>
-    <t>박태희</t>
-  </si>
-  <si>
-    <t>나카쿠키 켄지</t>
-  </si>
-  <si>
-    <t>Aristides S. Bouras|Loukia V. Ainarozidou</t>
-  </si>
-  <si>
-    <t>박상현</t>
-  </si>
-  <si>
     <t>피터 파렐</t>
   </si>
   <si>
@@ -1714,94 +1714,112 @@
     <t>20200715</t>
   </si>
   <si>
+    <t>20211014</t>
+  </si>
+  <si>
+    <t>20200207</t>
+  </si>
+  <si>
+    <t>20210322</t>
+  </si>
+  <si>
     <t>20211220</t>
   </si>
   <si>
+    <t>20210115</t>
+  </si>
+  <si>
     <t>20200701</t>
   </si>
   <si>
-    <t>20200207</t>
-  </si>
-  <si>
-    <t>20211014</t>
-  </si>
-  <si>
-    <t>20210322</t>
+    <t>20200727</t>
+  </si>
+  <si>
+    <t>20210126</t>
   </si>
   <si>
     <t>20210331</t>
   </si>
   <si>
+    <t>20211224</t>
+  </si>
+  <si>
+    <t>20220103</t>
+  </si>
+  <si>
+    <t>20200630</t>
+  </si>
+  <si>
     <t>20211215</t>
   </si>
   <si>
-    <t>20210115</t>
-  </si>
-  <si>
-    <t>20200727</t>
-  </si>
-  <si>
     <t>20181009</t>
   </si>
   <si>
-    <t>20210126</t>
-  </si>
-  <si>
-    <t>20200630</t>
+    <t>20200410</t>
   </si>
   <si>
     <t>20190425</t>
   </si>
   <si>
+    <t>20210118</t>
+  </si>
+  <si>
     <t>20201030</t>
   </si>
   <si>
-    <t>20200410</t>
-  </si>
-  <si>
     <t>20201230</t>
   </si>
   <si>
-    <t>20210118</t>
+    <t>20210705</t>
   </si>
   <si>
     <t>20211130</t>
   </si>
   <si>
-    <t>20210705</t>
+    <t>20210925</t>
+  </si>
+  <si>
+    <t>20190615</t>
+  </si>
+  <si>
+    <t>20211214</t>
   </si>
   <si>
     <t>20211021</t>
   </si>
   <si>
+    <t>20201110</t>
+  </si>
+  <si>
+    <t>20190520</t>
+  </si>
+  <si>
+    <t>20210616</t>
+  </si>
+  <si>
     <t>20201008</t>
   </si>
   <si>
-    <t>20210616</t>
-  </si>
-  <si>
-    <t>20210925</t>
-  </si>
-  <si>
-    <t>20201110</t>
-  </si>
-  <si>
-    <t>20190615</t>
+    <t>20210603</t>
+  </si>
+  <si>
+    <t>20201228</t>
   </si>
   <si>
     <t>20211119</t>
   </si>
   <si>
-    <t>20190520</t>
-  </si>
-  <si>
-    <t>20211214</t>
+    <t>20190329</t>
   </si>
   <si>
     <t>20211110</t>
   </si>
   <si>
-    <t>20210603</t>
+    <t>20160509</t>
+  </si>
+  <si>
+    <t>20210930</t>
   </si>
   <si>
     <t>20200427</t>
@@ -1810,613 +1828,589 @@
     <t>20181130</t>
   </si>
   <si>
-    <t>20160509</t>
+    <t>20170116</t>
+  </si>
+  <si>
+    <t>20201120</t>
+  </si>
+  <si>
+    <t>20200210</t>
+  </si>
+  <si>
+    <t>20201104</t>
+  </si>
+  <si>
+    <t>20201112</t>
+  </si>
+  <si>
+    <t>20210105</t>
+  </si>
+  <si>
+    <t>20220107</t>
+  </si>
+  <si>
+    <t>20210510</t>
+  </si>
+  <si>
+    <t>20211105</t>
+  </si>
+  <si>
+    <t>20201026</t>
+  </si>
+  <si>
+    <t>20210315</t>
+  </si>
+  <si>
+    <t>20200730</t>
+  </si>
+  <si>
+    <t>20200827</t>
+  </si>
+  <si>
+    <t>20200406</t>
+  </si>
+  <si>
+    <t>20200824</t>
+  </si>
+  <si>
+    <t>20210630</t>
+  </si>
+  <si>
+    <t>20210617</t>
+  </si>
+  <si>
+    <t>20210729</t>
+  </si>
+  <si>
+    <t>20200212</t>
+  </si>
+  <si>
+    <t>20210415</t>
+  </si>
+  <si>
+    <t>20200106</t>
+  </si>
+  <si>
+    <t>20210604</t>
+  </si>
+  <si>
+    <t>20210625</t>
+  </si>
+  <si>
+    <t>20210531</t>
+  </si>
+  <si>
+    <t>20210601</t>
+  </si>
+  <si>
+    <t>20200217</t>
+  </si>
+  <si>
+    <t>20160720</t>
+  </si>
+  <si>
+    <t>20181120</t>
+  </si>
+  <si>
+    <t>20201203</t>
+  </si>
+  <si>
+    <t>20190225</t>
+  </si>
+  <si>
+    <t>20210512</t>
   </si>
   <si>
     <t>20211201</t>
   </si>
   <si>
-    <t>20200210</t>
-  </si>
-  <si>
-    <t>20211105</t>
-  </si>
-  <si>
-    <t>20201228</t>
-  </si>
-  <si>
-    <t>20190329</t>
-  </si>
-  <si>
-    <t>20210930</t>
-  </si>
-  <si>
-    <t>20210510</t>
-  </si>
-  <si>
-    <t>20210105</t>
-  </si>
-  <si>
-    <t>20210625</t>
-  </si>
-  <si>
-    <t>20200730</t>
-  </si>
-  <si>
-    <t>20201026</t>
-  </si>
-  <si>
-    <t>20210315</t>
-  </si>
-  <si>
-    <t>20210415</t>
-  </si>
-  <si>
-    <t>20210604</t>
-  </si>
-  <si>
-    <t>20201120</t>
-  </si>
-  <si>
-    <t>20210630</t>
-  </si>
-  <si>
-    <t>20201112</t>
+    <t>20210104</t>
+  </si>
+  <si>
+    <t>20211010</t>
+  </si>
+  <si>
+    <t>20190307</t>
   </si>
   <si>
     <t>20211029</t>
   </si>
   <si>
-    <t>20200824</t>
-  </si>
-  <si>
-    <t>20201104</t>
-  </si>
-  <si>
-    <t>20200406</t>
-  </si>
-  <si>
-    <t>20170116</t>
-  </si>
-  <si>
-    <t>20200827</t>
-  </si>
-  <si>
-    <t>20210617</t>
-  </si>
-  <si>
-    <t>20210729</t>
+    <t>20210831</t>
+  </si>
+  <si>
+    <t>20210825</t>
+  </si>
+  <si>
+    <t>20191101</t>
+  </si>
+  <si>
+    <t>20180817</t>
+  </si>
+  <si>
+    <t>20170518</t>
+  </si>
+  <si>
+    <t>20210301</t>
+  </si>
+  <si>
+    <t>20210123</t>
+  </si>
+  <si>
+    <t>20200601</t>
+  </si>
+  <si>
+    <t>20210210</t>
+  </si>
+  <si>
+    <t>20210811</t>
+  </si>
+  <si>
+    <t>20200429</t>
+  </si>
+  <si>
+    <t>20190322</t>
+  </si>
+  <si>
+    <t>20171229</t>
+  </si>
+  <si>
+    <t>20200323</t>
+  </si>
+  <si>
+    <t>20191029</t>
+  </si>
+  <si>
+    <t>20181210</t>
+  </si>
+  <si>
+    <t>20210106</t>
+  </si>
+  <si>
+    <t>20190125</t>
+  </si>
+  <si>
+    <t>20210125</t>
+  </si>
+  <si>
+    <t>20211101</t>
+  </si>
+  <si>
+    <t>20190430</t>
+  </si>
+  <si>
+    <t>20190816</t>
+  </si>
+  <si>
+    <t>20210728</t>
+  </si>
+  <si>
+    <t>20200224</t>
+  </si>
+  <si>
+    <t>20200615</t>
+  </si>
+  <si>
+    <t>20210419</t>
   </si>
   <si>
     <t>20211117</t>
   </si>
   <si>
+    <t>20200225</t>
+  </si>
+  <si>
+    <t>20190120</t>
+  </si>
+  <si>
+    <t>20210501</t>
+  </si>
+  <si>
+    <t>20200407</t>
+  </si>
+  <si>
+    <t>20210924</t>
+  </si>
+  <si>
+    <t>20170929</t>
+  </si>
+  <si>
+    <t>20190715</t>
+  </si>
+  <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>20201019</t>
+  </si>
+  <si>
+    <t>20201231</t>
+  </si>
+  <si>
+    <t>20190703</t>
+  </si>
+  <si>
     <t>20160812</t>
   </si>
   <si>
-    <t>20210601</t>
-  </si>
-  <si>
-    <t>20200106</t>
-  </si>
-  <si>
-    <t>20190307</t>
-  </si>
-  <si>
-    <t>20200212</t>
-  </si>
-  <si>
-    <t>20210531</t>
-  </si>
-  <si>
-    <t>20211010</t>
-  </si>
-  <si>
-    <t>20201203</t>
-  </si>
-  <si>
-    <t>20200601</t>
-  </si>
-  <si>
-    <t>20190101</t>
-  </si>
-  <si>
-    <t>20181120</t>
-  </si>
-  <si>
-    <t>20210512</t>
-  </si>
-  <si>
-    <t>20220103</t>
-  </si>
-  <si>
-    <t>20180817</t>
-  </si>
-  <si>
-    <t>20210825</t>
-  </si>
-  <si>
-    <t>20190225</t>
-  </si>
-  <si>
-    <t>20191029</t>
-  </si>
-  <si>
-    <t>20210210</t>
-  </si>
-  <si>
-    <t>20170518</t>
-  </si>
-  <si>
-    <t>20210301</t>
-  </si>
-  <si>
-    <t>20191101</t>
-  </si>
-  <si>
-    <t>20210831</t>
-  </si>
-  <si>
-    <t>20211101</t>
-  </si>
-  <si>
-    <t>20190430</t>
-  </si>
-  <si>
-    <t>20210811</t>
-  </si>
-  <si>
     <t>20210525</t>
   </si>
   <si>
-    <t>20190322</t>
-  </si>
-  <si>
-    <t>20210104</t>
-  </si>
-  <si>
-    <t>20210106</t>
-  </si>
-  <si>
-    <t>20171229</t>
-  </si>
-  <si>
-    <t>20200615</t>
-  </si>
-  <si>
-    <t>20200323</t>
-  </si>
-  <si>
-    <t>20210728</t>
+    <t>20200316</t>
+  </si>
+  <si>
+    <t>20201130</t>
+  </si>
+  <si>
+    <t>20191122</t>
+  </si>
+  <si>
+    <t>20210416</t>
+  </si>
+  <si>
+    <t>20210820</t>
+  </si>
+  <si>
+    <t>20210302</t>
+  </si>
+  <si>
+    <t>20200304</t>
   </si>
   <si>
     <t>20191210</t>
   </si>
   <si>
-    <t>20210924</t>
-  </si>
-  <si>
-    <t>20200225</t>
-  </si>
-  <si>
-    <t>20191122</t>
-  </si>
-  <si>
-    <t>20190125</t>
+    <t>20171025</t>
+  </si>
+  <si>
+    <t>20210827</t>
+  </si>
+  <si>
+    <t>20180601</t>
+  </si>
+  <si>
+    <t>20191107</t>
+  </si>
+  <si>
+    <t>20180215</t>
+  </si>
+  <si>
+    <t>20170227</t>
+  </si>
+  <si>
+    <t>20210715</t>
+  </si>
+  <si>
+    <t>20210628</t>
+  </si>
+  <si>
+    <t>20210128</t>
+  </si>
+  <si>
+    <t>20190228</t>
+  </si>
+  <si>
+    <t>20190102</t>
+  </si>
+  <si>
+    <t>20210225</t>
+  </si>
+  <si>
+    <t>20160810</t>
+  </si>
+  <si>
+    <t>20170830</t>
+  </si>
+  <si>
+    <t>20210730</t>
+  </si>
+  <si>
+    <t>20210514</t>
+  </si>
+  <si>
+    <t>20181101</t>
+  </si>
+  <si>
+    <t>20200325</t>
+  </si>
+  <si>
+    <t>20170714</t>
+  </si>
+  <si>
+    <t>20200626</t>
+  </si>
+  <si>
+    <t>20201113</t>
+  </si>
+  <si>
+    <t>20190710</t>
+  </si>
+  <si>
+    <t>20191220</t>
+  </si>
+  <si>
+    <t>20160303</t>
+  </si>
+  <si>
+    <t>20190820</t>
+  </si>
+  <si>
+    <t>20210401</t>
+  </si>
+  <si>
+    <t>20200301</t>
+  </si>
+  <si>
+    <t>20200820</t>
+  </si>
+  <si>
+    <t>20191011</t>
+  </si>
+  <si>
+    <t>20200722</t>
+  </si>
+  <si>
+    <t>20210320</t>
+  </si>
+  <si>
+    <t>20191230</t>
+  </si>
+  <si>
+    <t>20200306</t>
+  </si>
+  <si>
+    <t>20141208</t>
+  </si>
+  <si>
+    <t>20210901</t>
+  </si>
+  <si>
+    <t>20191129</t>
+  </si>
+  <si>
+    <t>20190305</t>
+  </si>
+  <si>
+    <t>20191031</t>
+  </si>
+  <si>
+    <t>20190525</t>
+  </si>
+  <si>
+    <t>20191004</t>
+  </si>
+  <si>
+    <t>20171120</t>
+  </si>
+  <si>
+    <t>20180529</t>
+  </si>
+  <si>
+    <t>20210910</t>
+  </si>
+  <si>
+    <t>20211103</t>
+  </si>
+  <si>
+    <t>20190826</t>
+  </si>
+  <si>
+    <t>20210305</t>
+  </si>
+  <si>
+    <t>20170130</t>
+  </si>
+  <si>
+    <t>20200815</t>
+  </si>
+  <si>
+    <t>20181218</t>
+  </si>
+  <si>
+    <t>20200102</t>
+  </si>
+  <si>
+    <t>20190830</t>
+  </si>
+  <si>
+    <t>20200221</t>
+  </si>
+  <si>
+    <t>20190901</t>
+  </si>
+  <si>
+    <t>20180620</t>
+  </si>
+  <si>
+    <t>20210610</t>
+  </si>
+  <si>
+    <t>20190930</t>
+  </si>
+  <si>
+    <t>20201005</t>
+  </si>
+  <si>
+    <t>20160601</t>
+  </si>
+  <si>
+    <t>20160524</t>
+  </si>
+  <si>
+    <t>20210430</t>
+  </si>
+  <si>
+    <t>20200413</t>
+  </si>
+  <si>
+    <t>20171130</t>
   </si>
   <si>
     <t>20190328</t>
   </si>
   <si>
-    <t>20170227</t>
-  </si>
-  <si>
-    <t>20200217</t>
-  </si>
-  <si>
-    <t>20200224</t>
-  </si>
-  <si>
-    <t>20160720</t>
-  </si>
-  <si>
-    <t>20190228</t>
-  </si>
-  <si>
-    <t>20200407</t>
-  </si>
-  <si>
-    <t>20210125</t>
-  </si>
-  <si>
-    <t>20200316</t>
-  </si>
-  <si>
-    <t>20200429</t>
-  </si>
-  <si>
-    <t>20200304</t>
-  </si>
-  <si>
-    <t>20181210</t>
-  </si>
-  <si>
-    <t>20210123</t>
-  </si>
-  <si>
-    <t>20180601</t>
-  </si>
-  <si>
-    <t>20171025</t>
-  </si>
-  <si>
-    <t>20210715</t>
-  </si>
-  <si>
-    <t>20210628</t>
-  </si>
-  <si>
-    <t>20210128</t>
-  </si>
-  <si>
-    <t>20190816</t>
-  </si>
-  <si>
-    <t>20210501</t>
-  </si>
-  <si>
-    <t>20210827</t>
-  </si>
-  <si>
-    <t>20210820</t>
-  </si>
-  <si>
-    <t>20210514</t>
-  </si>
-  <si>
-    <t>20190120</t>
-  </si>
-  <si>
-    <t>20201019</t>
-  </si>
-  <si>
-    <t>20180215</t>
-  </si>
-  <si>
-    <t>20190715</t>
-  </si>
-  <si>
-    <t>20200325</t>
-  </si>
-  <si>
-    <t>20201231</t>
-  </si>
-  <si>
-    <t>20170929</t>
-  </si>
-  <si>
-    <t>20201130</t>
-  </si>
-  <si>
-    <t>20210419</t>
-  </si>
-  <si>
-    <t>20211103</t>
-  </si>
-  <si>
-    <t>20190703</t>
-  </si>
-  <si>
-    <t>20200626</t>
-  </si>
-  <si>
-    <t>20200306</t>
-  </si>
-  <si>
-    <t>20210416</t>
-  </si>
-  <si>
-    <t>20210302</t>
-  </si>
-  <si>
-    <t>20190102</t>
-  </si>
-  <si>
-    <t>20191220</t>
-  </si>
-  <si>
-    <t>20170830</t>
-  </si>
-  <si>
-    <t>20210225</t>
-  </si>
-  <si>
-    <t>20210401</t>
-  </si>
-  <si>
-    <t>20210910</t>
-  </si>
-  <si>
-    <t>20210430</t>
-  </si>
-  <si>
-    <t>20200722</t>
-  </si>
-  <si>
-    <t>20200820</t>
-  </si>
-  <si>
-    <t>20201113</t>
-  </si>
-  <si>
-    <t>20191107</t>
-  </si>
-  <si>
-    <t>20200301</t>
-  </si>
-  <si>
-    <t>20160303</t>
-  </si>
-  <si>
-    <t>20181218</t>
-  </si>
-  <si>
-    <t>20190305</t>
-  </si>
-  <si>
-    <t>20190826</t>
-  </si>
-  <si>
-    <t>20190710</t>
-  </si>
-  <si>
-    <t>20160810</t>
+    <t>20191201</t>
+  </si>
+  <si>
+    <t>20190920</t>
+  </si>
+  <si>
+    <t>20190822</t>
+  </si>
+  <si>
+    <t>20190813</t>
+  </si>
+  <si>
+    <t>20200725</t>
+  </si>
+  <si>
+    <t>20190304</t>
+  </si>
+  <si>
+    <t>20210913</t>
+  </si>
+  <si>
+    <t>20190131</t>
+  </si>
+  <si>
+    <t>20180724</t>
   </si>
   <si>
     <t>20210830</t>
   </si>
   <si>
-    <t>20210320</t>
-  </si>
-  <si>
-    <t>20191031</t>
-  </si>
-  <si>
-    <t>20190901</t>
-  </si>
-  <si>
-    <t>20210730</t>
-  </si>
-  <si>
-    <t>20170714</t>
-  </si>
-  <si>
-    <t>20191230</t>
-  </si>
-  <si>
-    <t>20200815</t>
-  </si>
-  <si>
-    <t>20190525</t>
+    <t>20210806</t>
+  </si>
+  <si>
+    <t>20160831</t>
+  </si>
+  <si>
+    <t>20201015</t>
   </si>
   <si>
     <t>20210908</t>
   </si>
   <si>
-    <t>20191011</t>
-  </si>
-  <si>
-    <t>20190930</t>
-  </si>
-  <si>
-    <t>20180529</t>
-  </si>
-  <si>
-    <t>20191004</t>
-  </si>
-  <si>
-    <t>20200221</t>
-  </si>
-  <si>
-    <t>20210305</t>
-  </si>
-  <si>
-    <t>20210901</t>
-  </si>
-  <si>
-    <t>20171130</t>
+    <t>20180402</t>
+  </si>
+  <si>
+    <t>20181220</t>
+  </si>
+  <si>
+    <t>20191007</t>
+  </si>
+  <si>
+    <t>20180910</t>
   </si>
   <si>
     <t>20211020</t>
   </si>
   <si>
-    <t>20170130</t>
-  </si>
-  <si>
-    <t>20201005</t>
-  </si>
-  <si>
-    <t>20210610</t>
-  </si>
-  <si>
-    <t>20160524</t>
-  </si>
-  <si>
-    <t>20181101</t>
-  </si>
-  <si>
-    <t>20190813</t>
-  </si>
-  <si>
-    <t>20171120</t>
-  </si>
-  <si>
-    <t>20160601</t>
-  </si>
-  <si>
-    <t>20190822</t>
-  </si>
-  <si>
-    <t>20190820</t>
-  </si>
-  <si>
-    <t>20210806</t>
-  </si>
-  <si>
-    <t>20200725</t>
-  </si>
-  <si>
-    <t>20180724</t>
-  </si>
-  <si>
-    <t>20180402</t>
-  </si>
-  <si>
-    <t>20180620</t>
+    <t>20180711</t>
+  </si>
+  <si>
+    <t>20190725</t>
+  </si>
+  <si>
+    <t>20200227</t>
+  </si>
+  <si>
+    <t>20210701</t>
+  </si>
+  <si>
+    <t>20201210</t>
+  </si>
+  <si>
+    <t>20191125</t>
+  </si>
+  <si>
+    <t>20210909</t>
+  </si>
+  <si>
+    <t>20210317</t>
+  </si>
+  <si>
+    <t>20191219</t>
+  </si>
+  <si>
+    <t>20190628</t>
+  </si>
+  <si>
+    <t>20210621</t>
+  </si>
+  <si>
+    <t>20180901</t>
+  </si>
+  <si>
+    <t>20170217</t>
+  </si>
+  <si>
+    <t>20180328</t>
+  </si>
+  <si>
+    <t>20200901</t>
+  </si>
+  <si>
+    <t>20200124</t>
+  </si>
+  <si>
+    <t>20200522</t>
+  </si>
+  <si>
+    <t>20210906</t>
+  </si>
+  <si>
+    <t>20190122</t>
+  </si>
+  <si>
+    <t>20200530</t>
   </si>
   <si>
     <t>20190731</t>
   </si>
   <si>
-    <t>20181220</t>
-  </si>
-  <si>
-    <t>20200413</t>
-  </si>
-  <si>
-    <t>20191007</t>
-  </si>
-  <si>
-    <t>20180710</t>
-  </si>
-  <si>
-    <t>20190725</t>
-  </si>
-  <si>
-    <t>20160831</t>
-  </si>
-  <si>
-    <t>20200102</t>
-  </si>
-  <si>
-    <t>20191129</t>
-  </si>
-  <si>
-    <t>20141208</t>
+    <t>20220110</t>
+  </si>
+  <si>
+    <t>20210915</t>
+  </si>
+  <si>
+    <t>20160210</t>
+  </si>
+  <si>
+    <t>20200120</t>
+  </si>
+  <si>
+    <t>20200910</t>
+  </si>
+  <si>
+    <t>20171012</t>
   </si>
   <si>
     <t>20190828</t>
   </si>
   <si>
-    <t>20180711</t>
-  </si>
-  <si>
-    <t>20200227</t>
-  </si>
-  <si>
-    <t>20191201</t>
-  </si>
-  <si>
-    <t>20210915</t>
-  </si>
-  <si>
-    <t>20201015</t>
-  </si>
-  <si>
-    <t>20190830</t>
-  </si>
-  <si>
-    <t>20210701</t>
-  </si>
-  <si>
-    <t>20171012</t>
-  </si>
-  <si>
-    <t>20210913</t>
-  </si>
-  <si>
-    <t>20210909</t>
-  </si>
-  <si>
-    <t>20210317</t>
-  </si>
-  <si>
-    <t>20191219</t>
-  </si>
-  <si>
-    <t>20191125</t>
-  </si>
-  <si>
-    <t>20180901</t>
-  </si>
-  <si>
-    <t>20190517</t>
-  </si>
-  <si>
-    <t>20200530</t>
-  </si>
-  <si>
-    <t>20190920</t>
-  </si>
-  <si>
-    <t>20201210</t>
-  </si>
-  <si>
-    <t>20190122</t>
-  </si>
-  <si>
-    <t>20180328</t>
-  </si>
-  <si>
-    <t>20180214</t>
-  </si>
-  <si>
-    <t>20190628</t>
-  </si>
-  <si>
-    <t>20180910</t>
-  </si>
-  <si>
-    <t>20200124</t>
-  </si>
-  <si>
-    <t>20190304</t>
-  </si>
-  <si>
-    <t>20200120</t>
-  </si>
-  <si>
-    <t>20200901</t>
-  </si>
-  <si>
-    <t>20160628</t>
-  </si>
-  <si>
-    <t>20170217</t>
-  </si>
-  <si>
-    <t>20190724</t>
-  </si>
-  <si>
-    <t>20190131</t>
-  </si>
-  <si>
-    <t>20170620</t>
-  </si>
-  <si>
-    <t>20210621</t>
-  </si>
-  <si>
-    <t>20210906</t>
-  </si>
-  <si>
-    <t>20160210</t>
-  </si>
-  <si>
     <t>20200115</t>
-  </si>
-  <si>
-    <t>20180426</t>
   </si>
 </sst>
 </file>
@@ -2990,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
         <v>575</v>
@@ -3004,7 +2998,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
         <v>576</v>
@@ -3018,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
         <v>577</v>
@@ -3032,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
         <v>578</v>
@@ -3046,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
         <v>579</v>
@@ -3060,7 +3054,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
         <v>580</v>
@@ -3074,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
         <v>581</v>
@@ -3088,7 +3082,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
         <v>582</v>
@@ -3102,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
         <v>583</v>
@@ -3116,7 +3110,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
         <v>584</v>
@@ -3130,7 +3124,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
         <v>585</v>
@@ -3144,7 +3138,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
         <v>586</v>
@@ -3158,7 +3152,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
         <v>587</v>
@@ -3172,7 +3166,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
         <v>588</v>
@@ -3186,7 +3180,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
         <v>589</v>
@@ -3200,7 +3194,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
         <v>590</v>
@@ -3214,7 +3208,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
         <v>591</v>
@@ -3228,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
         <v>592</v>
@@ -3242,7 +3236,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
         <v>593</v>
@@ -3256,10 +3250,10 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3270,10 +3264,10 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3284,10 +3278,10 @@
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3298,10 +3292,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3309,13 +3303,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3323,13 +3317,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3337,13 +3331,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3351,13 +3345,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3365,13 +3359,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3382,10 +3376,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3396,10 +3390,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3410,10 +3404,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3424,10 +3418,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3438,10 +3432,10 @@
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3452,10 +3446,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3466,10 +3460,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3480,10 +3474,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3494,10 +3488,10 @@
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D51" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3508,10 +3502,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D52" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3522,10 +3516,10 @@
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D53" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3536,10 +3530,10 @@
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3550,10 +3544,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3564,10 +3558,10 @@
         <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3578,10 +3572,10 @@
         <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3592,10 +3586,10 @@
         <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D58" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3606,10 +3600,10 @@
         <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D59" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3620,10 +3614,10 @@
         <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D60" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3634,10 +3628,10 @@
         <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D61" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3648,10 +3642,10 @@
         <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3662,10 +3656,10 @@
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3676,10 +3670,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3690,10 +3684,10 @@
         <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D65" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3704,10 +3698,10 @@
         <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D66" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3718,10 +3712,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D67" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3732,10 +3726,10 @@
         <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D68" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3746,10 +3740,10 @@
         <v>69</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D69" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3757,13 +3751,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3771,13 +3765,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D71" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3785,13 +3779,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D72" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3799,13 +3793,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D73" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3813,13 +3807,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3827,13 +3821,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3841,13 +3835,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3855,13 +3849,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D77" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3869,13 +3863,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3883,13 +3877,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3897,13 +3891,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D80" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3911,13 +3905,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3925,13 +3919,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D82" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3939,13 +3933,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3956,10 +3950,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D84" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3970,10 +3964,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3984,10 +3978,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D86" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3998,10 +3992,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4012,10 +4006,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D88" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4026,10 +4020,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D89" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4040,10 +4034,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D90" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4054,10 +4048,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="D91" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4068,10 +4062,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4085,7 +4079,7 @@
         <v>384</v>
       </c>
       <c r="D93" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4096,10 +4090,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4110,10 +4104,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4127,7 +4121,7 @@
         <v>386</v>
       </c>
       <c r="D96" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4138,10 +4132,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="D97" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4152,10 +4146,10 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4166,10 +4160,10 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4180,10 +4174,10 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D100" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4194,10 +4188,10 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4208,10 +4202,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4222,10 +4216,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D103" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4236,10 +4230,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D104" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4250,10 +4244,10 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4264,10 +4258,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D106" t="s">
-        <v>613</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4278,10 +4272,10 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4292,10 +4286,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D108" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4306,10 +4300,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D109" t="s">
-        <v>659</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4320,10 +4314,10 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="D110" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4334,10 +4328,10 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4348,10 +4342,10 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D112" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4362,10 +4356,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D113" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4376,10 +4370,10 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="D114" t="s">
-        <v>664</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4390,10 +4384,10 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4404,10 +4398,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D116" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4418,10 +4412,10 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D117" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4432,10 +4426,10 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D118" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4446,10 +4440,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D119" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4460,10 +4454,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="D120" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4474,10 +4468,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4488,10 +4482,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D122" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4502,10 +4496,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D123" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4516,10 +4510,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D124" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4530,10 +4524,10 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4544,10 +4538,10 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D126" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4558,10 +4552,10 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D127" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4572,10 +4566,10 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D128" t="s">
-        <v>674</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4586,10 +4580,10 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D129" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4600,10 +4594,10 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D130" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4614,10 +4608,10 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D131" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4628,10 +4622,10 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D132" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4642,10 +4636,10 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D133" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4656,10 +4650,10 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D134" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4670,10 +4664,10 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="D135" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4684,10 +4678,10 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D136" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4698,10 +4692,10 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D137" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4712,7 +4706,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D138" t="s">
         <v>680</v>
@@ -4726,10 +4720,10 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D139" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4740,10 +4734,10 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4754,10 +4748,10 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D141" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4768,10 +4762,10 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D142" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4782,10 +4776,10 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D143" t="s">
-        <v>622</v>
+        <v>683</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4796,10 +4790,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D144" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4810,10 +4804,10 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D145" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4824,10 +4818,10 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D146" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4838,10 +4832,10 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="D147" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4855,7 +4849,7 @@
         <v>429</v>
       </c>
       <c r="D148" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4869,7 +4863,7 @@
         <v>430</v>
       </c>
       <c r="D149" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4883,7 +4877,7 @@
         <v>431</v>
       </c>
       <c r="D150" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4897,7 +4891,7 @@
         <v>432</v>
       </c>
       <c r="D151" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4911,7 +4905,7 @@
         <v>433</v>
       </c>
       <c r="D152" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4922,10 +4916,10 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="D153" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4936,10 +4930,10 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
-        <v>613</v>
+        <v>693</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4950,10 +4944,10 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D155" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4964,10 +4958,10 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D156" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4978,10 +4972,10 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D157" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4992,10 +4986,10 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D158" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5006,10 +5000,10 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D159" t="s">
-        <v>697</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5020,10 +5014,10 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D160" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5034,10 +5028,10 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D161" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5048,10 +5042,10 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D162" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5062,10 +5056,10 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D163" t="s">
-        <v>701</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5076,10 +5070,10 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D164" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5090,10 +5084,10 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D165" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5104,10 +5098,10 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D166" t="s">
-        <v>703</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5121,7 +5115,7 @@
         <v>447</v>
       </c>
       <c r="D167" t="s">
-        <v>704</v>
+        <v>620</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5132,10 +5126,10 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5146,10 +5140,10 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="D169" t="s">
-        <v>567</v>
+        <v>701</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5160,10 +5154,10 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5174,10 +5168,10 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5188,10 +5182,10 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5202,10 +5196,10 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="D173" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5216,10 +5210,10 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D174" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5230,10 +5224,10 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D175" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5244,10 +5238,10 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D176" t="s">
-        <v>706</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5258,10 +5252,10 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D177" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5272,10 +5266,10 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D178" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5286,10 +5280,10 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D179" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5300,10 +5294,10 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D180" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5314,10 +5308,10 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D181" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5328,10 +5322,10 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D182" t="s">
-        <v>712</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5342,10 +5336,10 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="D183" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5356,10 +5350,10 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="D184" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5370,10 +5364,10 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>462</v>
+        <v>302</v>
       </c>
       <c r="D185" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5384,10 +5378,10 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D186" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5398,10 +5392,10 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5412,10 +5406,10 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D188" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5426,10 +5420,10 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D189" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5440,10 +5434,10 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D190" t="s">
-        <v>652</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5454,10 +5448,10 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D191" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5468,10 +5462,10 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D192" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5482,10 +5476,10 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D193" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5496,10 +5490,10 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D194" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5510,10 +5504,10 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="D195" t="s">
-        <v>721</v>
+        <v>678</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5527,7 +5521,7 @@
         <v>472</v>
       </c>
       <c r="D196" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5541,7 +5535,7 @@
         <v>473</v>
       </c>
       <c r="D197" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5555,7 +5549,7 @@
         <v>474</v>
       </c>
       <c r="D198" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5569,7 +5563,7 @@
         <v>475</v>
       </c>
       <c r="D199" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5583,7 +5577,7 @@
         <v>476</v>
       </c>
       <c r="D200" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5597,7 +5591,7 @@
         <v>477</v>
       </c>
       <c r="D201" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5611,7 +5605,7 @@
         <v>478</v>
       </c>
       <c r="D202" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5622,10 +5616,10 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="D203" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5636,10 +5630,10 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="D204" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5650,10 +5644,10 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="D205" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5664,10 +5658,10 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D206" t="s">
-        <v>729</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5678,10 +5672,10 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D207" t="s">
-        <v>730</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5692,10 +5686,10 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D208" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5706,10 +5700,10 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D209" t="s">
-        <v>602</v>
+        <v>728</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5720,10 +5714,10 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D210" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5734,10 +5728,10 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D211" t="s">
-        <v>567</v>
+        <v>730</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5748,10 +5742,10 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D212" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5762,10 +5756,10 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D213" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5776,10 +5770,10 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D214" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5790,10 +5784,10 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D215" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5804,10 +5798,10 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D216" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5818,10 +5812,10 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="D217" t="s">
-        <v>604</v>
+        <v>735</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5832,10 +5826,10 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D218" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5849,7 +5843,7 @@
         <v>492</v>
       </c>
       <c r="D219" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5860,10 +5854,10 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
       <c r="D220" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5874,10 +5868,10 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D221" t="s">
-        <v>740</v>
+        <v>694</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5888,10 +5882,10 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D222" t="s">
-        <v>741</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5902,10 +5896,10 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D223" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5916,10 +5910,10 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D224" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5930,10 +5924,10 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D225" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5944,10 +5938,10 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D226" t="s">
-        <v>647</v>
+        <v>741</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5958,10 +5952,10 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D227" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5972,10 +5966,10 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D228" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5986,10 +5980,10 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D229" t="s">
-        <v>597</v>
+        <v>744</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6000,10 +5994,10 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D230" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6014,10 +6008,10 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D231" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6028,10 +6022,10 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D232" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6042,10 +6036,10 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="D233" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6059,7 +6053,7 @@
         <v>506</v>
       </c>
       <c r="D234" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6073,7 +6067,7 @@
         <v>507</v>
       </c>
       <c r="D235" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6087,7 +6081,7 @@
         <v>508</v>
       </c>
       <c r="D236" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6098,10 +6092,10 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="D237" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6112,10 +6106,10 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D238" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6126,10 +6120,10 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D239" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6140,10 +6134,10 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D240" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6154,10 +6148,10 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="D241" t="s">
-        <v>577</v>
+        <v>755</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6171,7 +6165,7 @@
         <v>513</v>
       </c>
       <c r="D242" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6185,7 +6179,7 @@
         <v>514</v>
       </c>
       <c r="D243" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6199,7 +6193,7 @@
         <v>515</v>
       </c>
       <c r="D244" t="s">
-        <v>660</v>
+        <v>756</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6213,7 +6207,7 @@
         <v>516</v>
       </c>
       <c r="D245" t="s">
-        <v>758</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6224,10 +6218,10 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>517</v>
+        <v>377</v>
       </c>
       <c r="D246" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6238,10 +6232,10 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="D247" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6252,10 +6246,10 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="D248" t="s">
-        <v>761</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6266,10 +6260,10 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D249" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6280,10 +6274,10 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D250" t="s">
-        <v>648</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6294,10 +6288,10 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D251" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6308,10 +6302,10 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D252" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6322,10 +6316,10 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D253" t="s">
-        <v>765</v>
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6336,10 +6330,10 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D254" t="s">
-        <v>766</v>
+        <v>660</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6350,10 +6344,10 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D255" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6364,10 +6358,10 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D256" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6378,10 +6372,10 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D257" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6392,10 +6386,10 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D258" t="s">
-        <v>769</v>
+        <v>585</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6406,10 +6400,10 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D259" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6420,10 +6414,10 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D260" t="s">
-        <v>770</v>
+        <v>577</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6434,10 +6428,10 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D261" t="s">
-        <v>574</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6448,10 +6442,10 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D262" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6462,10 +6456,10 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>391</v>
+        <v>532</v>
       </c>
       <c r="D263" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6476,10 +6470,10 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>533</v>
+        <v>419</v>
       </c>
       <c r="D264" t="s">
-        <v>584</v>
+        <v>769</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6490,10 +6484,10 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="D265" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6507,7 +6501,7 @@
         <v>534</v>
       </c>
       <c r="D266" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6521,7 +6515,7 @@
         <v>535</v>
       </c>
       <c r="D267" t="s">
-        <v>734</v>
+        <v>772</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6535,7 +6529,7 @@
         <v>536</v>
       </c>
       <c r="D268" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6543,13 +6537,13 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D269" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6557,13 +6551,13 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="D270" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6571,13 +6565,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>372</v>
+        <v>538</v>
       </c>
       <c r="D271" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6585,13 +6579,13 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>537</v>
+        <v>403</v>
       </c>
       <c r="D272" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6599,13 +6593,13 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="D273" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6613,13 +6607,13 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D274" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6627,13 +6621,13 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D275" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6641,13 +6635,13 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D276" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6655,13 +6649,13 @@
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D277" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6669,13 +6663,13 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="D278" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6683,13 +6677,13 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D279" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6697,13 +6691,13 @@
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D280" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6711,13 +6705,13 @@
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D281" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6725,13 +6719,13 @@
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D282" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6739,13 +6733,13 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D283" t="s">
-        <v>597</v>
+        <v>749</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6753,13 +6747,13 @@
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D284" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6767,13 +6761,13 @@
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D285" t="s">
-        <v>725</v>
+        <v>787</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6781,13 +6775,13 @@
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D286" t="s">
-        <v>789</v>
+        <v>659</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6795,13 +6789,13 @@
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D287" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6809,13 +6803,13 @@
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="D288" t="s">
-        <v>676</v>
+        <v>789</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6823,13 +6817,13 @@
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>551</v>
+        <v>401</v>
       </c>
       <c r="D289" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6837,13 +6831,13 @@
         <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D290" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6851,13 +6845,13 @@
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D291" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6865,13 +6859,13 @@
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D292" t="s">
-        <v>794</v>
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6879,13 +6873,13 @@
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D293" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6893,13 +6887,13 @@
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>391</v>
+        <v>555</v>
       </c>
       <c r="D294" t="s">
-        <v>684</v>
+        <v>793</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6913,7 +6907,7 @@
         <v>556</v>
       </c>
       <c r="D295" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6924,10 +6918,10 @@
         <v>294</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="D296" t="s">
-        <v>797</v>
+        <v>712</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6938,10 +6932,10 @@
         <v>295</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D297" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6952,10 +6946,10 @@
         <v>296</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D298" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6966,10 +6960,10 @@
         <v>297</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D299" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6980,10 +6974,10 @@
         <v>298</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D300" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6994,10 +6988,10 @@
         <v>299</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>368</v>
+        <v>561</v>
       </c>
       <c r="D301" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
